--- a/JupyterNotebooks/AvgHW/GammaFiber2F-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/GammaFiber2F-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -737,25 +629,25 @@
         <v>1.007447623847035</v>
       </c>
       <c r="D3">
-        <v>0.9828372338957695</v>
+        <v>0.9828372338957698</v>
       </c>
       <c r="E3">
         <v>1.002641029315698</v>
       </c>
       <c r="F3">
+        <v>0.9828372338957698</v>
+      </c>
+      <c r="G3">
+        <v>1.004042367459859</v>
+      </c>
+      <c r="H3">
         <v>1.007447623847035</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>1.006414954751475</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>0.99143077528473</v>
-      </c>
-      <c r="I3">
-        <v>1.004042367459859</v>
-      </c>
-      <c r="J3">
-        <v>0.9828372338957695</v>
       </c>
       <c r="K3">
         <v>1.007447623847035</v>
@@ -764,19 +656,19 @@
         <v>1.002641029315698</v>
       </c>
       <c r="M3">
-        <v>0.9927391316057339</v>
+        <v>0.9927391316057341</v>
       </c>
       <c r="N3">
-        <v>0.9927391316057339</v>
+        <v>0.9927391316057341</v>
       </c>
       <c r="O3">
-        <v>0.9923030128320659</v>
+        <v>0.9923030128320661</v>
       </c>
       <c r="P3">
-        <v>0.9976419623528342</v>
+        <v>0.9976419623528345</v>
       </c>
       <c r="Q3">
-        <v>0.9976419623528344</v>
+        <v>0.9976419623528345</v>
       </c>
       <c r="R3">
         <v>1.000093377726385</v>
@@ -785,10 +677,10 @@
         <v>1.000093377726385</v>
       </c>
       <c r="T3">
-        <v>0.9991356640924277</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40">
+        <v>0.999135664092428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -799,25 +691,25 @@
         <v>1.014331184765702</v>
       </c>
       <c r="D4">
-        <v>0.9668497603831315</v>
+        <v>0.9668497603831318</v>
       </c>
       <c r="E4">
         <v>1.00511742868782</v>
       </c>
       <c r="F4">
+        <v>0.9668497603831318</v>
+      </c>
+      <c r="G4">
+        <v>1.007803652727414</v>
+      </c>
+      <c r="H4">
         <v>1.014331184765702</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>1.012411353958875</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>0.9834636640150761</v>
-      </c>
-      <c r="I4">
-        <v>1.007803652727414</v>
-      </c>
-      <c r="J4">
-        <v>0.9668497603831315</v>
       </c>
       <c r="K4">
         <v>1.014331184765702</v>
@@ -850,7 +742,7 @@
         <v>0.9983295074230032</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -864,43 +756,43 @@
         <v>0.9368783716792713</v>
       </c>
       <c r="E5">
-        <v>1.009967245172295</v>
+        <v>1.009967245172294</v>
       </c>
       <c r="F5">
+        <v>0.9368783716792713</v>
+      </c>
+      <c r="G5">
+        <v>1.014910963536438</v>
+      </c>
+      <c r="H5">
         <v>1.026924222758832</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>1.024421138031059</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>0.9683229310504998</v>
-      </c>
-      <c r="I5">
-        <v>1.014910963536438</v>
-      </c>
-      <c r="J5">
-        <v>0.9368783716792713</v>
       </c>
       <c r="K5">
         <v>1.026924222758832</v>
       </c>
       <c r="L5">
-        <v>1.009967245172295</v>
+        <v>1.009967245172294</v>
       </c>
       <c r="M5">
-        <v>0.973422808425783</v>
+        <v>0.9734228084257828</v>
       </c>
       <c r="N5">
-        <v>0.973422808425783</v>
+        <v>0.9734228084257828</v>
       </c>
       <c r="O5">
-        <v>0.9717228493006886</v>
+        <v>0.9717228493006885</v>
       </c>
       <c r="P5">
-        <v>0.9912566132034658</v>
+        <v>0.9912566132034657</v>
       </c>
       <c r="Q5">
-        <v>0.9912566132034658</v>
+        <v>0.9912566132034657</v>
       </c>
       <c r="R5">
         <v>1.000173515592307</v>
@@ -909,10 +801,10 @@
         <v>1.000173515592307</v>
       </c>
       <c r="T5">
-        <v>0.996904145371399</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40">
+        <v>0.9969041453713988</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -929,19 +821,19 @@
         <v>1.014740169046202</v>
       </c>
       <c r="F6">
+        <v>0.9076719595118805</v>
+      </c>
+      <c r="G6">
+        <v>1.021869159327755</v>
+      </c>
+      <c r="H6">
         <v>1.039192636354799</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>1.036096725197206</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>0.9535191446675004</v>
-      </c>
-      <c r="I6">
-        <v>1.021869159327755</v>
-      </c>
-      <c r="J6">
-        <v>0.9076719595118805</v>
       </c>
       <c r="K6">
         <v>1.039192636354799</v>
@@ -974,7 +866,7 @@
         <v>0.9955149656842238</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,25 +877,25 @@
         <v>1.000000122759293</v>
       </c>
       <c r="D7">
-        <v>0.9991016795993853</v>
+        <v>0.9991016795993856</v>
       </c>
       <c r="E7">
         <v>1.000352653400291</v>
       </c>
       <c r="F7">
+        <v>0.9991016795993856</v>
+      </c>
+      <c r="G7">
+        <v>1.000249874256598</v>
+      </c>
+      <c r="H7">
         <v>1.000000122759293</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>1.001045998265533</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>0.9994097019400648</v>
-      </c>
-      <c r="I7">
-        <v>1.000249874256598</v>
-      </c>
-      <c r="J7">
-        <v>0.9991016795993853</v>
       </c>
       <c r="K7">
         <v>1.000000122759293</v>
@@ -1012,31 +904,31 @@
         <v>1.000352653400291</v>
       </c>
       <c r="M7">
-        <v>0.9997271664998379</v>
+        <v>0.9997271664998382</v>
       </c>
       <c r="N7">
-        <v>0.9997271664998379</v>
+        <v>0.9997271664998382</v>
       </c>
       <c r="O7">
-        <v>0.9996213449799135</v>
+        <v>0.9996213449799137</v>
       </c>
       <c r="P7">
-        <v>0.9998181519196563</v>
+        <v>0.9998181519196564</v>
       </c>
       <c r="Q7">
-        <v>0.9998181519196563</v>
+        <v>0.9998181519196564</v>
       </c>
       <c r="R7">
-        <v>0.9998636446295655</v>
+        <v>0.9998636446295656</v>
       </c>
       <c r="S7">
-        <v>0.9998636446295655</v>
+        <v>0.9998636446295656</v>
       </c>
       <c r="T7">
         <v>1.000026671703528</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1053,19 +945,19 @@
         <v>1.000880848603676</v>
       </c>
       <c r="F8">
+        <v>0.9976702421343728</v>
+      </c>
+      <c r="G8">
+        <v>1.000641751929709</v>
+      </c>
+      <c r="H8">
         <v>1.000060748238406</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>1.002596503306836</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>0.9984931144311738</v>
-      </c>
-      <c r="I8">
-        <v>1.000641751929709</v>
-      </c>
-      <c r="J8">
-        <v>0.9976702421343728</v>
       </c>
       <c r="K8">
         <v>1.000060748238406</v>
@@ -1098,7 +990,7 @@
         <v>1.000057201440696</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1115,19 +1007,19 @@
         <v>1.001190601366218</v>
       </c>
       <c r="F9">
+        <v>0.9966419461771461</v>
+      </c>
+      <c r="G9">
+        <v>1.000910269727242</v>
+      </c>
+      <c r="H9">
         <v>1.000229065609731</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>1.003469108231593</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>0.9978845753205803</v>
-      </c>
-      <c r="I9">
-        <v>1.000910269727242</v>
-      </c>
-      <c r="J9">
-        <v>0.9966419461771461</v>
       </c>
       <c r="K9">
         <v>1.000229065609731</v>
@@ -1160,7 +1052,7 @@
         <v>1.000054261072085</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1177,19 +1069,19 @@
         <v>1.002614960863811</v>
       </c>
       <c r="F10">
+        <v>0.9928702446257462</v>
+      </c>
+      <c r="G10">
+        <v>1.001949025152521</v>
+      </c>
+      <c r="H10">
         <v>1.000330804841229</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>1.007670858197999</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>0.9954450077877116</v>
-      </c>
-      <c r="I10">
-        <v>1.001949025152521</v>
-      </c>
-      <c r="J10">
-        <v>0.9928702446257462</v>
       </c>
       <c r="K10">
         <v>1.000330804841229</v>
@@ -1222,7 +1114,7 @@
         <v>1.000146816911503</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1236,55 +1128,55 @@
         <v>0.9879384216613287</v>
       </c>
       <c r="E11">
-        <v>1.004230690088186</v>
+        <v>1.004230690088187</v>
       </c>
       <c r="F11">
+        <v>0.9879384216613287</v>
+      </c>
+      <c r="G11">
+        <v>1.003261601140276</v>
+      </c>
+      <c r="H11">
         <v>1.00090671385124</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>1.01231341068292</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>0.9924303594404007</v>
-      </c>
-      <c r="I11">
-        <v>1.003261601140276</v>
-      </c>
-      <c r="J11">
-        <v>0.9879384216613287</v>
       </c>
       <c r="K11">
         <v>1.00090671385124</v>
       </c>
       <c r="L11">
-        <v>1.004230690088186</v>
+        <v>1.004230690088187</v>
       </c>
       <c r="M11">
-        <v>0.9960845558747575</v>
+        <v>0.9960845558747576</v>
       </c>
       <c r="N11">
-        <v>0.9960845558747575</v>
+        <v>0.9960845558747576</v>
       </c>
       <c r="O11">
         <v>0.9948664903966385</v>
       </c>
       <c r="P11">
-        <v>0.9976919418669182</v>
+        <v>0.9976919418669183</v>
       </c>
       <c r="Q11">
-        <v>0.9976919418669182</v>
+        <v>0.9976919418669183</v>
       </c>
       <c r="R11">
-        <v>0.9984956348629985</v>
+        <v>0.9984956348629986</v>
       </c>
       <c r="S11">
-        <v>0.9984956348629985</v>
+        <v>0.9984956348629986</v>
       </c>
       <c r="T11">
         <v>1.000180199477392</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1298,28 +1190,28 @@
         <v>1.082246127759765</v>
       </c>
       <c r="E12">
-        <v>0.948687918936016</v>
+        <v>0.9486879189360159</v>
       </c>
       <c r="F12">
+        <v>1.082246127759765</v>
+      </c>
+      <c r="G12">
+        <v>0.973647767142882</v>
+      </c>
+      <c r="H12">
         <v>1.034300192776148</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>0.8459593346529771</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>1.065715200201808</v>
-      </c>
-      <c r="I12">
-        <v>0.973647767142882</v>
-      </c>
-      <c r="J12">
-        <v>1.082246127759765</v>
       </c>
       <c r="K12">
         <v>1.034300192776148</v>
       </c>
       <c r="L12">
-        <v>0.948687918936016</v>
+        <v>0.9486879189360159</v>
       </c>
       <c r="M12">
         <v>1.015467023347891</v>
@@ -1346,7 +1238,7 @@
         <v>0.9917594235782662</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1363,19 +1255,19 @@
         <v>1.000643091019575</v>
       </c>
       <c r="F13">
+        <v>1.050095771542162</v>
+      </c>
+      <c r="G13">
+        <v>0.9901223627025181</v>
+      </c>
+      <c r="H13">
         <v>0.9645569955738693</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>1.009428130733858</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>1.01827627897359</v>
-      </c>
-      <c r="I13">
-        <v>0.9901223627025181</v>
-      </c>
-      <c r="J13">
-        <v>1.050095771542162</v>
       </c>
       <c r="K13">
         <v>0.9645569955738693</v>
@@ -1408,7 +1300,7 @@
         <v>1.005520438424262</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1422,28 +1314,28 @@
         <v>1.082237970709322</v>
       </c>
       <c r="E14">
-        <v>0.9486896285328138</v>
+        <v>0.9486896285328137</v>
       </c>
       <c r="F14">
+        <v>1.082237970709322</v>
+      </c>
+      <c r="G14">
+        <v>0.9736497251270588</v>
+      </c>
+      <c r="H14">
         <v>1.03430275305951</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>0.8459635142590431</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>1.065711042282012</v>
-      </c>
-      <c r="I14">
-        <v>0.9736497251270588</v>
-      </c>
-      <c r="J14">
-        <v>1.082237970709322</v>
       </c>
       <c r="K14">
         <v>1.03430275305951</v>
       </c>
       <c r="L14">
-        <v>0.9486896285328138</v>
+        <v>0.9486896285328137</v>
       </c>
       <c r="M14">
         <v>1.015463799621068</v>
@@ -1470,7 +1362,7 @@
         <v>0.9917591056616267</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1487,19 +1379,19 @@
         <v>1.000643624370919</v>
       </c>
       <c r="F15">
+        <v>1.050094095817835</v>
+      </c>
+      <c r="G15">
+        <v>0.9901228246439837</v>
+      </c>
+      <c r="H15">
         <v>0.9645572990960503</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>1.009429866402673</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>1.018275162555036</v>
-      </c>
-      <c r="I15">
-        <v>0.9901228246439837</v>
-      </c>
-      <c r="J15">
-        <v>1.050094095817835</v>
       </c>
       <c r="K15">
         <v>0.9645572990960503</v>
@@ -1532,7 +1424,7 @@
         <v>1.005520478814416</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9997058214045914</v>
+        <v>1.136623824314236</v>
       </c>
       <c r="D16">
-        <v>1.000130855112148</v>
+        <v>0.6696068629591935</v>
       </c>
       <c r="E16">
-        <v>1.000110812651336</v>
+        <v>1.054310695847438</v>
       </c>
       <c r="F16">
-        <v>0.9997058214045914</v>
+        <v>0.6696068629591935</v>
       </c>
       <c r="G16">
-        <v>1.000389226638614</v>
+        <v>1.078308678750116</v>
       </c>
       <c r="H16">
-        <v>0.9999772812765969</v>
+        <v>1.136623824314236</v>
       </c>
       <c r="I16">
-        <v>0.999992738988956</v>
+        <v>1.134154223122591</v>
       </c>
       <c r="J16">
-        <v>1.000130855112148</v>
+        <v>0.8332665852981332</v>
       </c>
       <c r="K16">
-        <v>0.9997058214045914</v>
+        <v>1.136623824314236</v>
       </c>
       <c r="L16">
-        <v>1.000110812651336</v>
+        <v>1.054310695847438</v>
       </c>
       <c r="M16">
-        <v>1.000120833881742</v>
+        <v>0.8619587794033159</v>
       </c>
       <c r="N16">
-        <v>1.000120833881742</v>
+        <v>0.8619587794033159</v>
       </c>
       <c r="O16">
-        <v>1.00007298301336</v>
+        <v>0.8523947147015883</v>
       </c>
       <c r="P16">
-        <v>0.9999824963893583</v>
+        <v>0.9535137943736226</v>
       </c>
       <c r="Q16">
-        <v>0.9999824963893585</v>
+        <v>0.9535137943736226</v>
       </c>
       <c r="R16">
-        <v>0.9999133276431668</v>
+        <v>0.9992913018587759</v>
       </c>
       <c r="S16">
-        <v>0.9999133276431668</v>
+        <v>0.9992913018587759</v>
       </c>
       <c r="T16">
-        <v>1.000051122678707</v>
+        <v>0.9843784783819514</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000277697363478</v>
+        <v>1.093346531103648</v>
       </c>
       <c r="D17">
-        <v>0.9987324989840958</v>
+        <v>0.7406921460338332</v>
       </c>
       <c r="E17">
-        <v>1.000344487491103</v>
+        <v>1.050225571126902</v>
       </c>
       <c r="F17">
-        <v>1.000277697363478</v>
+        <v>0.7406921460338332</v>
       </c>
       <c r="G17">
-        <v>1.000981696485296</v>
+        <v>1.062797270430239</v>
       </c>
       <c r="H17">
-        <v>0.9992658537755064</v>
+        <v>1.093346531103648</v>
       </c>
       <c r="I17">
-        <v>1.000325014699577</v>
+        <v>1.130001111599779</v>
       </c>
       <c r="J17">
-        <v>0.9987324989840958</v>
+        <v>0.8642747392287826</v>
       </c>
       <c r="K17">
-        <v>1.000277697363478</v>
+        <v>1.093346531103648</v>
       </c>
       <c r="L17">
-        <v>1.000344487491103</v>
+        <v>1.050225571126902</v>
       </c>
       <c r="M17">
-        <v>0.9995384932375995</v>
+        <v>0.8954588585803674</v>
       </c>
       <c r="N17">
-        <v>0.9995384932375995</v>
+        <v>0.8954588585803674</v>
       </c>
       <c r="O17">
-        <v>0.9994476134169018</v>
+        <v>0.8850641521298392</v>
       </c>
       <c r="P17">
-        <v>0.9997848946128922</v>
+        <v>0.9614214160881275</v>
       </c>
       <c r="Q17">
-        <v>0.9997848946128922</v>
+        <v>0.9614214160881275</v>
       </c>
       <c r="R17">
-        <v>0.9999080953005386</v>
+        <v>0.9944026948420075</v>
       </c>
       <c r="S17">
-        <v>0.9999080953005386</v>
+        <v>0.9944026948420075</v>
       </c>
       <c r="T17">
-        <v>0.9999878747998427</v>
+        <v>0.9902228949205304</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.001919077737855</v>
+        <v>1.007249812731797</v>
       </c>
       <c r="D18">
-        <v>0.994913561768774</v>
+        <v>0.8830605232962947</v>
       </c>
       <c r="E18">
-        <v>1.000931369232774</v>
+        <v>1.041724947091363</v>
       </c>
       <c r="F18">
-        <v>1.001919077737855</v>
+        <v>0.8830605232962947</v>
       </c>
       <c r="G18">
-        <v>1.002375139066767</v>
+        <v>1.031673886669895</v>
       </c>
       <c r="H18">
-        <v>0.9973797810481257</v>
+        <v>1.007249812731797</v>
       </c>
       <c r="I18">
-        <v>1.001219331504391</v>
+        <v>1.120623414130241</v>
       </c>
       <c r="J18">
-        <v>0.994913561768774</v>
+        <v>0.9265901242946789</v>
       </c>
       <c r="K18">
-        <v>1.001919077737855</v>
+        <v>1.007249812731797</v>
       </c>
       <c r="L18">
-        <v>1.000931369232774</v>
+        <v>1.041724947091363</v>
       </c>
       <c r="M18">
-        <v>0.9979224655007739</v>
+        <v>0.962392735193829</v>
       </c>
       <c r="N18">
-        <v>0.9979224655007739</v>
+        <v>0.962392735193829</v>
       </c>
       <c r="O18">
-        <v>0.9977415706832246</v>
+        <v>0.9504585315607789</v>
       </c>
       <c r="P18">
-        <v>0.999254669579801</v>
+        <v>0.9773450943731516</v>
       </c>
       <c r="Q18">
-        <v>0.999254669579801</v>
+        <v>0.9773450943731516</v>
       </c>
       <c r="R18">
-        <v>0.9999207716193146</v>
+        <v>0.984821273962813</v>
       </c>
       <c r="S18">
-        <v>0.9999207716193146</v>
+        <v>0.984821273962813</v>
       </c>
       <c r="T18">
-        <v>0.9997897100597811</v>
+        <v>1.001820451369045</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9995971446845781</v>
+      </c>
+      <c r="D19">
+        <v>0.8789284785523939</v>
+      </c>
+      <c r="E19">
+        <v>1.047910706230491</v>
+      </c>
+      <c r="F19">
+        <v>0.8789284785523939</v>
+      </c>
+      <c r="G19">
+        <v>1.033825120488489</v>
+      </c>
+      <c r="H19">
+        <v>0.9995971446845781</v>
+      </c>
+      <c r="I19">
+        <v>1.141823537737481</v>
+      </c>
+      <c r="J19">
+        <v>0.9200825303620435</v>
+      </c>
+      <c r="K19">
+        <v>0.9995971446845781</v>
+      </c>
+      <c r="L19">
+        <v>1.047910706230491</v>
+      </c>
+      <c r="M19">
+        <v>0.9634195923914425</v>
+      </c>
+      <c r="N19">
+        <v>0.9634195923914425</v>
+      </c>
+      <c r="O19">
+        <v>0.9489739050483094</v>
+      </c>
+      <c r="P19">
+        <v>0.9754787764891543</v>
+      </c>
+      <c r="Q19">
+        <v>0.9754787764891543</v>
+      </c>
+      <c r="R19">
+        <v>0.9815083685380103</v>
+      </c>
+      <c r="S19">
+        <v>0.9815083685380103</v>
+      </c>
+      <c r="T19">
+        <v>1.003694586342579</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9997058214045915</v>
+      </c>
+      <c r="D20">
+        <v>1.000130855112148</v>
+      </c>
+      <c r="E20">
+        <v>1.000110812651336</v>
+      </c>
+      <c r="F20">
+        <v>1.000130855112148</v>
+      </c>
+      <c r="G20">
+        <v>0.9999927389889561</v>
+      </c>
+      <c r="H20">
+        <v>0.9997058214045915</v>
+      </c>
+      <c r="I20">
+        <v>1.000389226638614</v>
+      </c>
+      <c r="J20">
+        <v>0.9999772812765965</v>
+      </c>
+      <c r="K20">
+        <v>0.9997058214045915</v>
+      </c>
+      <c r="L20">
+        <v>1.000110812651336</v>
+      </c>
+      <c r="M20">
+        <v>1.000120833881742</v>
+      </c>
+      <c r="N20">
+        <v>1.000120833881742</v>
+      </c>
+      <c r="O20">
+        <v>1.00007298301336</v>
+      </c>
+      <c r="P20">
+        <v>0.9999824963893583</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999824963893582</v>
+      </c>
+      <c r="R20">
+        <v>0.9999133276431665</v>
+      </c>
+      <c r="S20">
+        <v>0.9999133276431665</v>
+      </c>
+      <c r="T20">
+        <v>1.000051122678707</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000277697363478</v>
+      </c>
+      <c r="D21">
+        <v>0.9987324989840958</v>
+      </c>
+      <c r="E21">
+        <v>1.000344487491103</v>
+      </c>
+      <c r="F21">
+        <v>0.9987324989840958</v>
+      </c>
+      <c r="G21">
+        <v>1.000325014699578</v>
+      </c>
+      <c r="H21">
+        <v>1.000277697363478</v>
+      </c>
+      <c r="I21">
+        <v>1.000981696485296</v>
+      </c>
+      <c r="J21">
+        <v>0.9992658537755064</v>
+      </c>
+      <c r="K21">
+        <v>1.000277697363478</v>
+      </c>
+      <c r="L21">
+        <v>1.000344487491103</v>
+      </c>
+      <c r="M21">
+        <v>0.9995384932375995</v>
+      </c>
+      <c r="N21">
+        <v>0.9995384932375995</v>
+      </c>
+      <c r="O21">
+        <v>0.9994476134169018</v>
+      </c>
+      <c r="P21">
+        <v>0.9997848946128922</v>
+      </c>
+      <c r="Q21">
+        <v>0.9997848946128922</v>
+      </c>
+      <c r="R21">
+        <v>0.9999080953005386</v>
+      </c>
+      <c r="S21">
+        <v>0.9999080953005386</v>
+      </c>
+      <c r="T21">
+        <v>0.9999878747998427</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.001919077737855</v>
+      </c>
+      <c r="D22">
+        <v>0.9949135617687742</v>
+      </c>
+      <c r="E22">
+        <v>1.000931369232774</v>
+      </c>
+      <c r="F22">
+        <v>0.9949135617687742</v>
+      </c>
+      <c r="G22">
+        <v>1.001219331504391</v>
+      </c>
+      <c r="H22">
+        <v>1.001919077737855</v>
+      </c>
+      <c r="I22">
+        <v>1.002375139066767</v>
+      </c>
+      <c r="J22">
+        <v>0.9973797810481257</v>
+      </c>
+      <c r="K22">
+        <v>1.001919077737855</v>
+      </c>
+      <c r="L22">
+        <v>1.000931369232774</v>
+      </c>
+      <c r="M22">
+        <v>0.9979224655007741</v>
+      </c>
+      <c r="N22">
+        <v>0.9979224655007741</v>
+      </c>
+      <c r="O22">
+        <v>0.9977415706832247</v>
+      </c>
+      <c r="P22">
+        <v>0.999254669579801</v>
+      </c>
+      <c r="Q22">
+        <v>0.999254669579801</v>
+      </c>
+      <c r="R22">
+        <v>0.9999207716193146</v>
+      </c>
+      <c r="S22">
+        <v>0.9999207716193146</v>
+      </c>
+      <c r="T22">
+        <v>0.9997897100597811</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>1.005521707255991</v>
       </c>
-      <c r="D19">
+      <c r="D23">
         <v>0.9874978507407578</v>
       </c>
-      <c r="E19">
+      <c r="E23">
         <v>1.001859137017016</v>
       </c>
-      <c r="F19">
+      <c r="F23">
+        <v>0.9874978507407578</v>
+      </c>
+      <c r="G23">
+        <v>1.002926937138495</v>
+      </c>
+      <c r="H23">
         <v>1.005521707255991</v>
       </c>
-      <c r="G19">
+      <c r="I23">
         <v>1.004450929830387</v>
       </c>
-      <c r="H19">
+      <c r="J23">
         <v>0.9938180930815619</v>
       </c>
-      <c r="I19">
-        <v>1.002926937138495</v>
-      </c>
-      <c r="J19">
-        <v>0.9874978507407578</v>
-      </c>
-      <c r="K19">
+      <c r="K23">
         <v>1.005521707255991</v>
       </c>
-      <c r="L19">
+      <c r="L23">
         <v>1.001859137017016</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9946784938788868</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9946784938788868</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9943916936131117</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9982928983379216</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9982928983379216</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.000100100567439</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.000100100567439</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9993457758440348</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/GammaFiber2F-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/GammaFiber2F-HW25.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.007447623847035</v>
+        <v>1.009509716570607</v>
       </c>
       <c r="D3">
-        <v>0.9828372338957698</v>
+        <v>0.861248113004321</v>
       </c>
       <c r="E3">
-        <v>1.002641029315698</v>
+        <v>1.049058522435158</v>
       </c>
       <c r="F3">
-        <v>0.9828372338957698</v>
+        <v>0.861248113004321</v>
       </c>
       <c r="G3">
-        <v>1.004042367459859</v>
+        <v>1.037528259394814</v>
       </c>
       <c r="H3">
-        <v>1.007447623847035</v>
+        <v>1.009509716570607</v>
       </c>
       <c r="I3">
-        <v>1.006414954751475</v>
+        <v>1.142104114906337</v>
       </c>
       <c r="J3">
-        <v>0.99143077528473</v>
+        <v>0.9130168078530274</v>
       </c>
       <c r="K3">
-        <v>1.007447623847035</v>
+        <v>1.009509716570607</v>
       </c>
       <c r="L3">
-        <v>1.002641029315698</v>
+        <v>1.049058522435158</v>
       </c>
       <c r="M3">
-        <v>0.9927391316057341</v>
+        <v>0.9551533177197397</v>
       </c>
       <c r="N3">
-        <v>0.9927391316057341</v>
+        <v>0.9551533177197397</v>
       </c>
       <c r="O3">
-        <v>0.9923030128320661</v>
+        <v>0.9411078144308357</v>
       </c>
       <c r="P3">
-        <v>0.9976419623528345</v>
+        <v>0.9732721173366956</v>
       </c>
       <c r="Q3">
-        <v>0.9976419623528345</v>
+        <v>0.9732721173366956</v>
       </c>
       <c r="R3">
-        <v>1.000093377726385</v>
+        <v>0.9823315171451735</v>
       </c>
       <c r="S3">
-        <v>1.000093377726385</v>
+        <v>0.9823315171451735</v>
       </c>
       <c r="T3">
-        <v>0.999135664092428</v>
+        <v>1.002077589027378</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.014331184765702</v>
+        <v>1.007878469735376</v>
       </c>
       <c r="D4">
-        <v>0.9668497603831318</v>
+        <v>0.8733970505348502</v>
       </c>
       <c r="E4">
-        <v>1.00511742868782</v>
+        <v>1.045179423941481</v>
       </c>
       <c r="F4">
-        <v>0.9668497603831318</v>
+        <v>0.8733970505348502</v>
       </c>
       <c r="G4">
-        <v>1.007803652727414</v>
+        <v>1.034304510721205</v>
       </c>
       <c r="H4">
-        <v>1.014331184765702</v>
+        <v>1.007878469735376</v>
       </c>
       <c r="I4">
-        <v>1.012411353958875</v>
+        <v>1.130822769886333</v>
       </c>
       <c r="J4">
-        <v>0.9834636640150761</v>
+        <v>0.9204396925894567</v>
       </c>
       <c r="K4">
-        <v>1.014331184765702</v>
+        <v>1.007878469735376</v>
       </c>
       <c r="L4">
-        <v>1.00511742868782</v>
+        <v>1.045179423941481</v>
       </c>
       <c r="M4">
-        <v>0.9859835945354758</v>
+        <v>0.9592882372381655</v>
       </c>
       <c r="N4">
-        <v>0.9859835945354758</v>
+        <v>0.9592882372381655</v>
       </c>
       <c r="O4">
-        <v>0.9851436176953426</v>
+        <v>0.9463387223552626</v>
       </c>
       <c r="P4">
-        <v>0.9954327912788846</v>
+        <v>0.9754849814039023</v>
       </c>
       <c r="Q4">
-        <v>0.9954327912788846</v>
+        <v>0.9754849814039023</v>
       </c>
       <c r="R4">
-        <v>1.000157389650589</v>
+        <v>0.9835833534867706</v>
       </c>
       <c r="S4">
-        <v>1.000157389650589</v>
+        <v>0.9835833534867706</v>
       </c>
       <c r="T4">
-        <v>0.9983295074230032</v>
+        <v>1.00200365290145</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.026924222758832</v>
+        <v>1.012472750431267</v>
       </c>
       <c r="D5">
-        <v>0.9368783716792713</v>
+        <v>0.8382240081401616</v>
       </c>
       <c r="E5">
-        <v>1.009967245172294</v>
+        <v>1.056480871401617</v>
       </c>
       <c r="F5">
-        <v>0.9368783716792713</v>
+        <v>0.8382240081401616</v>
       </c>
       <c r="G5">
-        <v>1.014910963536438</v>
+        <v>1.043650519649598</v>
       </c>
       <c r="H5">
-        <v>1.026924222758832</v>
+        <v>1.012472750431267</v>
       </c>
       <c r="I5">
-        <v>1.024421138031059</v>
+        <v>1.163719503584907</v>
       </c>
       <c r="J5">
-        <v>0.9683229310504998</v>
+        <v>0.8989019968463609</v>
       </c>
       <c r="K5">
-        <v>1.026924222758832</v>
+        <v>1.012472750431267</v>
       </c>
       <c r="L5">
-        <v>1.009967245172294</v>
+        <v>1.056480871401617</v>
       </c>
       <c r="M5">
-        <v>0.9734228084257828</v>
+        <v>0.9473524397708895</v>
       </c>
       <c r="N5">
-        <v>0.9734228084257828</v>
+        <v>0.9473524397708895</v>
       </c>
       <c r="O5">
-        <v>0.9717228493006885</v>
+        <v>0.93120229212938</v>
       </c>
       <c r="P5">
-        <v>0.9912566132034657</v>
+        <v>0.9690592099910154</v>
       </c>
       <c r="Q5">
-        <v>0.9912566132034657</v>
+        <v>0.9690592099910154</v>
       </c>
       <c r="R5">
-        <v>1.000173515592307</v>
+        <v>0.9799125951010783</v>
       </c>
       <c r="S5">
-        <v>1.000173515592307</v>
+        <v>0.9799125951010783</v>
       </c>
       <c r="T5">
-        <v>0.9969041453713988</v>
+        <v>1.002241608342319</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.039192636354799</v>
+        <v>1.015078918977274</v>
       </c>
       <c r="D6">
-        <v>0.9076719595118805</v>
+        <v>0.8167836073295448</v>
       </c>
       <c r="E6">
-        <v>1.014740169046202</v>
+        <v>1.063477122556817</v>
       </c>
       <c r="F6">
-        <v>0.9076719595118805</v>
+        <v>0.8167836073295448</v>
       </c>
       <c r="G6">
-        <v>1.021869159327755</v>
+        <v>1.049366862215909</v>
       </c>
       <c r="H6">
-        <v>1.039192636354799</v>
+        <v>1.015078918977274</v>
       </c>
       <c r="I6">
-        <v>1.036096725197206</v>
+        <v>1.184128733124999</v>
       </c>
       <c r="J6">
-        <v>0.9535191446675004</v>
+        <v>0.8857017005681806</v>
       </c>
       <c r="K6">
-        <v>1.039192636354799</v>
+        <v>1.015078918977274</v>
       </c>
       <c r="L6">
-        <v>1.014740169046202</v>
+        <v>1.063477122556817</v>
       </c>
       <c r="M6">
-        <v>0.9612060642790414</v>
+        <v>0.9401303649431809</v>
       </c>
       <c r="N6">
-        <v>0.9612060642790414</v>
+        <v>0.9401303649431809</v>
       </c>
       <c r="O6">
-        <v>0.9586437577418611</v>
+        <v>0.9219874768181807</v>
       </c>
       <c r="P6">
-        <v>0.9872015883042939</v>
+        <v>0.9651132162878785</v>
       </c>
       <c r="Q6">
-        <v>0.9872015883042939</v>
+        <v>0.9651132162878785</v>
       </c>
       <c r="R6">
-        <v>1.00019935031692</v>
+        <v>0.9776046419602273</v>
       </c>
       <c r="S6">
-        <v>1.00019935031692</v>
+        <v>0.9776046419602273</v>
       </c>
       <c r="T6">
-        <v>0.9955149656842238</v>
+        <v>1.002422824128787</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000000122759293</v>
+        <v>1.008633970326</v>
       </c>
       <c r="D7">
-        <v>0.9991016795993856</v>
+        <v>0.920076354473815</v>
       </c>
       <c r="E7">
-        <v>1.000352653400291</v>
+        <v>1.02640570861067</v>
       </c>
       <c r="F7">
-        <v>0.9991016795993856</v>
+        <v>0.920076354473815</v>
       </c>
       <c r="G7">
-        <v>1.000249874256598</v>
+        <v>1.021224441503708</v>
       </c>
       <c r="H7">
-        <v>1.000000122759293</v>
+        <v>1.008633970326</v>
       </c>
       <c r="I7">
-        <v>1.001045998265533</v>
+        <v>1.074734125780558</v>
       </c>
       <c r="J7">
-        <v>0.9994097019400648</v>
+        <v>0.9515081819217623</v>
       </c>
       <c r="K7">
-        <v>1.000000122759293</v>
+        <v>1.008633970326</v>
       </c>
       <c r="L7">
-        <v>1.000352653400291</v>
+        <v>1.02640570861067</v>
       </c>
       <c r="M7">
-        <v>0.9997271664998382</v>
+        <v>0.9732410315422424</v>
       </c>
       <c r="N7">
-        <v>0.9997271664998382</v>
+        <v>0.9732410315422424</v>
       </c>
       <c r="O7">
-        <v>0.9996213449799137</v>
+        <v>0.9659967483354158</v>
       </c>
       <c r="P7">
-        <v>0.9998181519196564</v>
+        <v>0.9850386778034949</v>
       </c>
       <c r="Q7">
-        <v>0.9998181519196564</v>
+        <v>0.9850386778034949</v>
       </c>
       <c r="R7">
-        <v>0.9998636446295656</v>
+        <v>0.990937500934121</v>
       </c>
       <c r="S7">
-        <v>0.9998636446295656</v>
+        <v>0.990937500934121</v>
       </c>
       <c r="T7">
-        <v>1.000026671703528</v>
+        <v>1.000430463769419</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000060748238406</v>
+        <v>1.008745944250528</v>
       </c>
       <c r="D8">
-        <v>0.9976702421343728</v>
+        <v>0.9171184436391582</v>
       </c>
       <c r="E8">
-        <v>1.000880848603676</v>
+        <v>1.027508283472786</v>
       </c>
       <c r="F8">
-        <v>0.9976702421343728</v>
+        <v>0.9171184436391582</v>
       </c>
       <c r="G8">
-        <v>1.000641751929709</v>
+        <v>1.022038211484679</v>
       </c>
       <c r="H8">
-        <v>1.000060748238406</v>
+        <v>1.008745944250528</v>
       </c>
       <c r="I8">
-        <v>1.002596503306836</v>
+        <v>1.078010048043325</v>
       </c>
       <c r="J8">
-        <v>0.9984931144311738</v>
+        <v>0.9495934548891013</v>
       </c>
       <c r="K8">
-        <v>1.000060748238406</v>
+        <v>1.008745944250528</v>
       </c>
       <c r="L8">
-        <v>1.000880848603676</v>
+        <v>1.027508283472786</v>
       </c>
       <c r="M8">
-        <v>0.9992755453690246</v>
+        <v>0.9723133635559721</v>
       </c>
       <c r="N8">
-        <v>0.9992755453690246</v>
+        <v>0.9723133635559721</v>
       </c>
       <c r="O8">
-        <v>0.9990147350564077</v>
+        <v>0.9647400606670152</v>
       </c>
       <c r="P8">
-        <v>0.9995372796588186</v>
+        <v>0.9844575571208241</v>
       </c>
       <c r="Q8">
-        <v>0.9995372796588186</v>
+        <v>0.9844575571208241</v>
       </c>
       <c r="R8">
-        <v>0.9996681468037155</v>
+        <v>0.9905296539032501</v>
       </c>
       <c r="S8">
-        <v>0.9996681468037155</v>
+        <v>0.9905296539032501</v>
       </c>
       <c r="T8">
-        <v>1.000057201440696</v>
+        <v>1.00050239762993</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000229065609731</v>
+        <v>1.008506335045188</v>
       </c>
       <c r="D9">
-        <v>0.9966419461771461</v>
+        <v>0.9148127620366904</v>
       </c>
       <c r="E9">
-        <v>1.001190601366218</v>
+        <v>1.028549881796314</v>
       </c>
       <c r="F9">
-        <v>0.9966419461771461</v>
+        <v>0.9148127620366904</v>
       </c>
       <c r="G9">
-        <v>1.000910269727242</v>
+        <v>1.022706280130981</v>
       </c>
       <c r="H9">
-        <v>1.000229065609731</v>
+        <v>1.008506335045188</v>
       </c>
       <c r="I9">
-        <v>1.003469108231593</v>
+        <v>1.081189153905917</v>
       </c>
       <c r="J9">
-        <v>0.9978845753205803</v>
+        <v>0.9479722247566871</v>
       </c>
       <c r="K9">
-        <v>1.000229065609731</v>
+        <v>1.008506335045188</v>
       </c>
       <c r="L9">
-        <v>1.001190601366218</v>
+        <v>1.028549881796314</v>
       </c>
       <c r="M9">
-        <v>0.9989162737716819</v>
+        <v>0.9716813219165021</v>
       </c>
       <c r="N9">
-        <v>0.9989162737716819</v>
+        <v>0.9716813219165021</v>
       </c>
       <c r="O9">
-        <v>0.9985723742879813</v>
+        <v>0.9637782895298971</v>
       </c>
       <c r="P9">
-        <v>0.9993538710510318</v>
+        <v>0.9839563262927308</v>
       </c>
       <c r="Q9">
-        <v>0.9993538710510318</v>
+        <v>0.9839563262927308</v>
       </c>
       <c r="R9">
-        <v>0.9995726696907066</v>
+        <v>0.9900938284808452</v>
       </c>
       <c r="S9">
-        <v>0.9995726696907066</v>
+        <v>0.9900938284808452</v>
       </c>
       <c r="T9">
-        <v>1.000054261072085</v>
+        <v>1.000622772945296</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000330804841229</v>
+        <v>1.009539807544755</v>
       </c>
       <c r="D10">
-        <v>0.9928702446257462</v>
+        <v>0.9083797858300323</v>
       </c>
       <c r="E10">
-        <v>1.002614960863811</v>
+        <v>1.03051558662428</v>
       </c>
       <c r="F10">
-        <v>0.9928702446257462</v>
+        <v>0.9083797858300323</v>
       </c>
       <c r="G10">
-        <v>1.001949025152521</v>
+        <v>1.024400196937705</v>
       </c>
       <c r="H10">
-        <v>1.000330804841229</v>
+        <v>1.009539807544755</v>
       </c>
       <c r="I10">
-        <v>1.007670858197999</v>
+        <v>1.086930245513221</v>
       </c>
       <c r="J10">
-        <v>0.9954450077877116</v>
+        <v>0.9440792579897291</v>
       </c>
       <c r="K10">
-        <v>1.000330804841229</v>
+        <v>1.009539807544755</v>
       </c>
       <c r="L10">
-        <v>1.002614960863811</v>
+        <v>1.03051558662428</v>
       </c>
       <c r="M10">
-        <v>0.9977426027447787</v>
+        <v>0.9694476862271562</v>
       </c>
       <c r="N10">
-        <v>0.9977426027447787</v>
+        <v>0.9694476862271562</v>
       </c>
       <c r="O10">
-        <v>0.9969767377590896</v>
+        <v>0.9609915434813471</v>
       </c>
       <c r="P10">
-        <v>0.9986053367769286</v>
+        <v>0.9828117266663557</v>
       </c>
       <c r="Q10">
-        <v>0.9986053367769286</v>
+        <v>0.9828117266663557</v>
       </c>
       <c r="R10">
-        <v>0.9990367037930037</v>
+        <v>0.9894937468859555</v>
       </c>
       <c r="S10">
-        <v>0.9990367037930037</v>
+        <v>0.9894937468859555</v>
       </c>
       <c r="T10">
-        <v>1.000146816911503</v>
+        <v>1.00064081340662</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.00090671385124</v>
+        <v>1.007965985913276</v>
       </c>
       <c r="D11">
-        <v>0.9879384216613287</v>
+        <v>0.9812759867702117</v>
       </c>
       <c r="E11">
-        <v>1.004230690088187</v>
+        <v>1.002947219214197</v>
       </c>
       <c r="F11">
-        <v>0.9879384216613287</v>
+        <v>0.9812759867702117</v>
       </c>
       <c r="G11">
-        <v>1.003261601140276</v>
+        <v>1.004410415395896</v>
       </c>
       <c r="H11">
-        <v>1.00090671385124</v>
+        <v>1.007965985913276</v>
       </c>
       <c r="I11">
-        <v>1.01231341068292</v>
+        <v>1.007133604462379</v>
       </c>
       <c r="J11">
-        <v>0.9924303594404007</v>
+        <v>0.9906563941014248</v>
       </c>
       <c r="K11">
-        <v>1.00090671385124</v>
+        <v>1.007965985913276</v>
       </c>
       <c r="L11">
-        <v>1.004230690088187</v>
+        <v>1.002947219214197</v>
       </c>
       <c r="M11">
-        <v>0.9960845558747576</v>
+        <v>0.9921116029922045</v>
       </c>
       <c r="N11">
-        <v>0.9960845558747576</v>
+        <v>0.9921116029922045</v>
       </c>
       <c r="O11">
-        <v>0.9948664903966385</v>
+        <v>0.9916265333619446</v>
       </c>
       <c r="P11">
-        <v>0.9976919418669183</v>
+        <v>0.9973963972992282</v>
       </c>
       <c r="Q11">
-        <v>0.9976919418669183</v>
+        <v>0.9973963972992282</v>
       </c>
       <c r="R11">
-        <v>0.9984956348629986</v>
+        <v>1.00003879445274</v>
       </c>
       <c r="S11">
-        <v>0.9984956348629986</v>
+        <v>1.00003879445274</v>
       </c>
       <c r="T11">
-        <v>1.000180199477392</v>
+        <v>0.9990649343095641</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.034300192776148</v>
+        <v>1.003750676315466</v>
       </c>
       <c r="D12">
-        <v>1.082246127759765</v>
+        <v>0.9911181975416197</v>
       </c>
       <c r="E12">
-        <v>0.9486879189360159</v>
+        <v>1.001419758356126</v>
       </c>
       <c r="F12">
-        <v>1.082246127759765</v>
+        <v>0.9911181975416197</v>
       </c>
       <c r="G12">
-        <v>0.973647767142882</v>
+        <v>1.002099325433787</v>
       </c>
       <c r="H12">
-        <v>1.034300192776148</v>
+        <v>1.003750676315466</v>
       </c>
       <c r="I12">
-        <v>0.8459593346529771</v>
+        <v>1.003495153278459</v>
       </c>
       <c r="J12">
-        <v>1.065715200201808</v>
+        <v>0.9955357193588324</v>
       </c>
       <c r="K12">
-        <v>1.034300192776148</v>
+        <v>1.003750676315466</v>
       </c>
       <c r="L12">
-        <v>0.9486879189360159</v>
+        <v>1.001419758356126</v>
       </c>
       <c r="M12">
-        <v>1.015467023347891</v>
+        <v>0.996268977948873</v>
       </c>
       <c r="N12">
-        <v>1.015467023347891</v>
+        <v>0.996268977948873</v>
       </c>
       <c r="O12">
-        <v>1.03221641563253</v>
+        <v>0.9960245584188595</v>
       </c>
       <c r="P12">
-        <v>1.021744746490643</v>
+        <v>0.9987628774044038</v>
       </c>
       <c r="Q12">
-        <v>1.021744746490643</v>
+        <v>0.9987628774044038</v>
       </c>
       <c r="R12">
-        <v>1.024883608062019</v>
+        <v>1.000009827132169</v>
       </c>
       <c r="S12">
-        <v>1.024883608062019</v>
+        <v>1.000009827132169</v>
       </c>
       <c r="T12">
-        <v>0.9917594235782662</v>
+        <v>0.9995698050473815</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9645569955738693</v>
+        <v>1.013384793502522</v>
       </c>
       <c r="D13">
-        <v>1.050095771542162</v>
+        <v>0.9696595177420608</v>
       </c>
       <c r="E13">
-        <v>1.000643091019575</v>
+        <v>1.004544077100421</v>
       </c>
       <c r="F13">
-        <v>1.050095771542162</v>
+        <v>0.9696595177420608</v>
       </c>
       <c r="G13">
-        <v>0.9901223627025181</v>
+        <v>1.007121545033955</v>
       </c>
       <c r="H13">
-        <v>0.9645569955738693</v>
+        <v>1.013384793502522</v>
       </c>
       <c r="I13">
-        <v>1.009428130733858</v>
+        <v>1.010974642598218</v>
       </c>
       <c r="J13">
-        <v>1.01827627897359</v>
+        <v>0.9849285733205632</v>
       </c>
       <c r="K13">
-        <v>0.9645569955738693</v>
+        <v>1.013384793502522</v>
       </c>
       <c r="L13">
-        <v>1.000643091019575</v>
+        <v>1.004544077100421</v>
       </c>
       <c r="M13">
-        <v>1.025369431280869</v>
+        <v>0.987101797421241</v>
       </c>
       <c r="N13">
-        <v>1.025369431280869</v>
+        <v>0.987101797421241</v>
       </c>
       <c r="O13">
-        <v>1.023005047178442</v>
+        <v>0.9863773893876817</v>
       </c>
       <c r="P13">
-        <v>1.005098619378535</v>
+        <v>0.9958627961150013</v>
       </c>
       <c r="Q13">
-        <v>1.005098619378536</v>
+        <v>0.9958627961150013</v>
       </c>
       <c r="R13">
-        <v>0.9949632134273689</v>
+        <v>1.000243295461881</v>
       </c>
       <c r="S13">
-        <v>0.9949632134273689</v>
+        <v>1.000243295461881</v>
       </c>
       <c r="T13">
-        <v>1.005520438424262</v>
+        <v>0.9984355248829568</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.03430275305951</v>
+        <v>1.020161896837216</v>
       </c>
       <c r="D14">
-        <v>1.082237970709322</v>
+        <v>0.9524684086484361</v>
       </c>
       <c r="E14">
-        <v>0.9486896285328137</v>
+        <v>1.007552698540232</v>
       </c>
       <c r="F14">
-        <v>1.082237970709322</v>
+        <v>0.9524684086484361</v>
       </c>
       <c r="G14">
-        <v>0.9736497251270588</v>
+        <v>1.011228842192006</v>
       </c>
       <c r="H14">
-        <v>1.03430275305951</v>
+        <v>1.020161896837216</v>
       </c>
       <c r="I14">
-        <v>0.8459635142590431</v>
+        <v>1.0185410034686</v>
       </c>
       <c r="J14">
-        <v>1.065711042282012</v>
+        <v>0.9761364914570976</v>
       </c>
       <c r="K14">
-        <v>1.03430275305951</v>
+        <v>1.020161896837216</v>
       </c>
       <c r="L14">
-        <v>0.9486896285328137</v>
+        <v>1.007552698540232</v>
       </c>
       <c r="M14">
-        <v>1.015463799621068</v>
+        <v>0.9800105535943341</v>
       </c>
       <c r="N14">
-        <v>1.015463799621068</v>
+        <v>0.9800105535943341</v>
       </c>
       <c r="O14">
-        <v>1.032212880508049</v>
+        <v>0.9787191995485885</v>
       </c>
       <c r="P14">
-        <v>1.021743450767215</v>
+        <v>0.9933943346752946</v>
       </c>
       <c r="Q14">
-        <v>1.021743450767216</v>
+        <v>0.9933943346752946</v>
       </c>
       <c r="R14">
-        <v>1.024883276340289</v>
+        <v>1.000086225215775</v>
       </c>
       <c r="S14">
-        <v>1.024883276340289</v>
+        <v>1.000086225215775</v>
       </c>
       <c r="T14">
-        <v>0.9917591056616267</v>
+        <v>0.9976815568572645</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9645572990960503</v>
+        <v>1.007447623847035</v>
       </c>
       <c r="D15">
-        <v>1.050094095817835</v>
+        <v>0.9828372338957698</v>
       </c>
       <c r="E15">
-        <v>1.000643624370919</v>
+        <v>1.002641029315698</v>
       </c>
       <c r="F15">
-        <v>1.050094095817835</v>
+        <v>0.9828372338957698</v>
       </c>
       <c r="G15">
-        <v>0.9901228246439837</v>
+        <v>1.004042367459859</v>
       </c>
       <c r="H15">
-        <v>0.9645572990960503</v>
+        <v>1.007447623847035</v>
       </c>
       <c r="I15">
-        <v>1.009429866402673</v>
+        <v>1.006414954751475</v>
       </c>
       <c r="J15">
-        <v>1.018275162555036</v>
+        <v>0.99143077528473</v>
       </c>
       <c r="K15">
-        <v>0.9645572990960503</v>
+        <v>1.007447623847035</v>
       </c>
       <c r="L15">
-        <v>1.000643624370919</v>
+        <v>1.002641029315698</v>
       </c>
       <c r="M15">
-        <v>1.025368860094377</v>
+        <v>0.9927391316057341</v>
       </c>
       <c r="N15">
-        <v>1.025368860094377</v>
+        <v>0.9927391316057341</v>
       </c>
       <c r="O15">
-        <v>1.02300429424793</v>
+        <v>0.9923030128320661</v>
       </c>
       <c r="P15">
-        <v>1.005098339761602</v>
+        <v>0.9976419623528345</v>
       </c>
       <c r="Q15">
-        <v>1.005098339761602</v>
+        <v>0.9976419623528345</v>
       </c>
       <c r="R15">
-        <v>0.9949630795952138</v>
+        <v>1.000093377726385</v>
       </c>
       <c r="S15">
-        <v>0.9949630795952138</v>
+        <v>1.000093377726385</v>
       </c>
       <c r="T15">
-        <v>1.005520478814416</v>
+        <v>0.999135664092428</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.136623824314236</v>
+        <v>1.014331184765702</v>
       </c>
       <c r="D16">
-        <v>0.6696068629591935</v>
+        <v>0.9668497603831318</v>
       </c>
       <c r="E16">
-        <v>1.054310695847438</v>
+        <v>1.00511742868782</v>
       </c>
       <c r="F16">
-        <v>0.6696068629591935</v>
+        <v>0.9668497603831318</v>
       </c>
       <c r="G16">
-        <v>1.078308678750116</v>
+        <v>1.007803652727414</v>
       </c>
       <c r="H16">
-        <v>1.136623824314236</v>
+        <v>1.014331184765702</v>
       </c>
       <c r="I16">
-        <v>1.134154223122591</v>
+        <v>1.012411353958875</v>
       </c>
       <c r="J16">
-        <v>0.8332665852981332</v>
+        <v>0.9834636640150761</v>
       </c>
       <c r="K16">
-        <v>1.136623824314236</v>
+        <v>1.014331184765702</v>
       </c>
       <c r="L16">
-        <v>1.054310695847438</v>
+        <v>1.00511742868782</v>
       </c>
       <c r="M16">
-        <v>0.8619587794033159</v>
+        <v>0.9859835945354758</v>
       </c>
       <c r="N16">
-        <v>0.8619587794033159</v>
+        <v>0.9859835945354758</v>
       </c>
       <c r="O16">
-        <v>0.8523947147015883</v>
+        <v>0.9851436176953426</v>
       </c>
       <c r="P16">
-        <v>0.9535137943736226</v>
+        <v>0.9954327912788846</v>
       </c>
       <c r="Q16">
-        <v>0.9535137943736226</v>
+        <v>0.9954327912788846</v>
       </c>
       <c r="R16">
-        <v>0.9992913018587759</v>
+        <v>1.000157389650589</v>
       </c>
       <c r="S16">
-        <v>0.9992913018587759</v>
+        <v>1.000157389650589</v>
       </c>
       <c r="T16">
-        <v>0.9843784783819514</v>
+        <v>0.9983295074230032</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.093346531103648</v>
+        <v>1.026924222758832</v>
       </c>
       <c r="D17">
-        <v>0.7406921460338332</v>
+        <v>0.9368783716792713</v>
       </c>
       <c r="E17">
-        <v>1.050225571126902</v>
+        <v>1.009967245172294</v>
       </c>
       <c r="F17">
-        <v>0.7406921460338332</v>
+        <v>0.9368783716792713</v>
       </c>
       <c r="G17">
-        <v>1.062797270430239</v>
+        <v>1.014910963536438</v>
       </c>
       <c r="H17">
-        <v>1.093346531103648</v>
+        <v>1.026924222758832</v>
       </c>
       <c r="I17">
-        <v>1.130001111599779</v>
+        <v>1.024421138031059</v>
       </c>
       <c r="J17">
-        <v>0.8642747392287826</v>
+        <v>0.9683229310504998</v>
       </c>
       <c r="K17">
-        <v>1.093346531103648</v>
+        <v>1.026924222758832</v>
       </c>
       <c r="L17">
-        <v>1.050225571126902</v>
+        <v>1.009967245172294</v>
       </c>
       <c r="M17">
-        <v>0.8954588585803674</v>
+        <v>0.9734228084257828</v>
       </c>
       <c r="N17">
-        <v>0.8954588585803674</v>
+        <v>0.9734228084257828</v>
       </c>
       <c r="O17">
-        <v>0.8850641521298392</v>
+        <v>0.9717228493006885</v>
       </c>
       <c r="P17">
-        <v>0.9614214160881275</v>
+        <v>0.9912566132034657</v>
       </c>
       <c r="Q17">
-        <v>0.9614214160881275</v>
+        <v>0.9912566132034657</v>
       </c>
       <c r="R17">
-        <v>0.9944026948420075</v>
+        <v>1.000173515592307</v>
       </c>
       <c r="S17">
-        <v>0.9944026948420075</v>
+        <v>1.000173515592307</v>
       </c>
       <c r="T17">
-        <v>0.9902228949205304</v>
+        <v>0.9969041453713988</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.007249812731797</v>
+        <v>1.039192636354799</v>
       </c>
       <c r="D18">
-        <v>0.8830605232962947</v>
+        <v>0.9076719595118805</v>
       </c>
       <c r="E18">
-        <v>1.041724947091363</v>
+        <v>1.014740169046202</v>
       </c>
       <c r="F18">
-        <v>0.8830605232962947</v>
+        <v>0.9076719595118805</v>
       </c>
       <c r="G18">
-        <v>1.031673886669895</v>
+        <v>1.021869159327755</v>
       </c>
       <c r="H18">
-        <v>1.007249812731797</v>
+        <v>1.039192636354799</v>
       </c>
       <c r="I18">
-        <v>1.120623414130241</v>
+        <v>1.036096725197206</v>
       </c>
       <c r="J18">
-        <v>0.9265901242946789</v>
+        <v>0.9535191446675004</v>
       </c>
       <c r="K18">
-        <v>1.007249812731797</v>
+        <v>1.039192636354799</v>
       </c>
       <c r="L18">
-        <v>1.041724947091363</v>
+        <v>1.014740169046202</v>
       </c>
       <c r="M18">
-        <v>0.962392735193829</v>
+        <v>0.9612060642790414</v>
       </c>
       <c r="N18">
-        <v>0.962392735193829</v>
+        <v>0.9612060642790414</v>
       </c>
       <c r="O18">
-        <v>0.9504585315607789</v>
+        <v>0.9586437577418611</v>
       </c>
       <c r="P18">
-        <v>0.9773450943731516</v>
+        <v>0.9872015883042939</v>
       </c>
       <c r="Q18">
-        <v>0.9773450943731516</v>
+        <v>0.9872015883042939</v>
       </c>
       <c r="R18">
-        <v>0.984821273962813</v>
+        <v>1.00019935031692</v>
       </c>
       <c r="S18">
-        <v>0.984821273962813</v>
+        <v>1.00019935031692</v>
       </c>
       <c r="T18">
-        <v>1.001820451369045</v>
+        <v>0.9955149656842238</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9995971446845781</v>
+        <v>1.000000122759293</v>
       </c>
       <c r="D19">
-        <v>0.8789284785523939</v>
+        <v>0.9991016795993856</v>
       </c>
       <c r="E19">
-        <v>1.047910706230491</v>
+        <v>1.000352653400291</v>
       </c>
       <c r="F19">
-        <v>0.8789284785523939</v>
+        <v>0.9991016795993856</v>
       </c>
       <c r="G19">
-        <v>1.033825120488489</v>
+        <v>1.000249874256598</v>
       </c>
       <c r="H19">
-        <v>0.9995971446845781</v>
+        <v>1.000000122759293</v>
       </c>
       <c r="I19">
-        <v>1.141823537737481</v>
+        <v>1.001045998265533</v>
       </c>
       <c r="J19">
-        <v>0.9200825303620435</v>
+        <v>0.9994097019400648</v>
       </c>
       <c r="K19">
-        <v>0.9995971446845781</v>
+        <v>1.000000122759293</v>
       </c>
       <c r="L19">
-        <v>1.047910706230491</v>
+        <v>1.000352653400291</v>
       </c>
       <c r="M19">
-        <v>0.9634195923914425</v>
+        <v>0.9997271664998382</v>
       </c>
       <c r="N19">
-        <v>0.9634195923914425</v>
+        <v>0.9997271664998382</v>
       </c>
       <c r="O19">
-        <v>0.9489739050483094</v>
+        <v>0.9996213449799137</v>
       </c>
       <c r="P19">
-        <v>0.9754787764891543</v>
+        <v>0.9998181519196564</v>
       </c>
       <c r="Q19">
-        <v>0.9754787764891543</v>
+        <v>0.9998181519196564</v>
       </c>
       <c r="R19">
-        <v>0.9815083685380103</v>
+        <v>0.9998636446295656</v>
       </c>
       <c r="S19">
-        <v>0.9815083685380103</v>
+        <v>0.9998636446295656</v>
       </c>
       <c r="T19">
-        <v>1.003694586342579</v>
+        <v>1.000026671703528</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9997058214045915</v>
+        <v>1.000060748238406</v>
       </c>
       <c r="D20">
-        <v>1.000130855112148</v>
+        <v>0.9976702421343728</v>
       </c>
       <c r="E20">
-        <v>1.000110812651336</v>
+        <v>1.000880848603676</v>
       </c>
       <c r="F20">
-        <v>1.000130855112148</v>
+        <v>0.9976702421343728</v>
       </c>
       <c r="G20">
-        <v>0.9999927389889561</v>
+        <v>1.000641751929709</v>
       </c>
       <c r="H20">
-        <v>0.9997058214045915</v>
+        <v>1.000060748238406</v>
       </c>
       <c r="I20">
-        <v>1.000389226638614</v>
+        <v>1.002596503306836</v>
       </c>
       <c r="J20">
-        <v>0.9999772812765965</v>
+        <v>0.9984931144311738</v>
       </c>
       <c r="K20">
-        <v>0.9997058214045915</v>
+        <v>1.000060748238406</v>
       </c>
       <c r="L20">
-        <v>1.000110812651336</v>
+        <v>1.000880848603676</v>
       </c>
       <c r="M20">
-        <v>1.000120833881742</v>
+        <v>0.9992755453690246</v>
       </c>
       <c r="N20">
-        <v>1.000120833881742</v>
+        <v>0.9992755453690246</v>
       </c>
       <c r="O20">
-        <v>1.00007298301336</v>
+        <v>0.9990147350564077</v>
       </c>
       <c r="P20">
-        <v>0.9999824963893583</v>
+        <v>0.9995372796588186</v>
       </c>
       <c r="Q20">
-        <v>0.9999824963893582</v>
+        <v>0.9995372796588186</v>
       </c>
       <c r="R20">
-        <v>0.9999133276431665</v>
+        <v>0.9996681468037155</v>
       </c>
       <c r="S20">
-        <v>0.9999133276431665</v>
+        <v>0.9996681468037155</v>
       </c>
       <c r="T20">
-        <v>1.000051122678707</v>
+        <v>1.000057201440696</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000277697363478</v>
+        <v>1.000229065609731</v>
       </c>
       <c r="D21">
-        <v>0.9987324989840958</v>
+        <v>0.9966419461771461</v>
       </c>
       <c r="E21">
-        <v>1.000344487491103</v>
+        <v>1.001190601366218</v>
       </c>
       <c r="F21">
-        <v>0.9987324989840958</v>
+        <v>0.9966419461771461</v>
       </c>
       <c r="G21">
-        <v>1.000325014699578</v>
+        <v>1.000910269727242</v>
       </c>
       <c r="H21">
-        <v>1.000277697363478</v>
+        <v>1.000229065609731</v>
       </c>
       <c r="I21">
-        <v>1.000981696485296</v>
+        <v>1.003469108231593</v>
       </c>
       <c r="J21">
-        <v>0.9992658537755064</v>
+        <v>0.9978845753205803</v>
       </c>
       <c r="K21">
-        <v>1.000277697363478</v>
+        <v>1.000229065609731</v>
       </c>
       <c r="L21">
-        <v>1.000344487491103</v>
+        <v>1.001190601366218</v>
       </c>
       <c r="M21">
-        <v>0.9995384932375995</v>
+        <v>0.9989162737716819</v>
       </c>
       <c r="N21">
-        <v>0.9995384932375995</v>
+        <v>0.9989162737716819</v>
       </c>
       <c r="O21">
-        <v>0.9994476134169018</v>
+        <v>0.9985723742879813</v>
       </c>
       <c r="P21">
-        <v>0.9997848946128922</v>
+        <v>0.9993538710510318</v>
       </c>
       <c r="Q21">
-        <v>0.9997848946128922</v>
+        <v>0.9993538710510318</v>
       </c>
       <c r="R21">
-        <v>0.9999080953005386</v>
+        <v>0.9995726696907066</v>
       </c>
       <c r="S21">
-        <v>0.9999080953005386</v>
+        <v>0.9995726696907066</v>
       </c>
       <c r="T21">
-        <v>0.9999878747998427</v>
+        <v>1.000054261072085</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.001919077737855</v>
+        <v>1.000330804841229</v>
       </c>
       <c r="D22">
-        <v>0.9949135617687742</v>
+        <v>0.9928702446257462</v>
       </c>
       <c r="E22">
-        <v>1.000931369232774</v>
+        <v>1.002614960863811</v>
       </c>
       <c r="F22">
-        <v>0.9949135617687742</v>
+        <v>0.9928702446257462</v>
       </c>
       <c r="G22">
-        <v>1.001219331504391</v>
+        <v>1.001949025152521</v>
       </c>
       <c r="H22">
-        <v>1.001919077737855</v>
+        <v>1.000330804841229</v>
       </c>
       <c r="I22">
-        <v>1.002375139066767</v>
+        <v>1.007670858197999</v>
       </c>
       <c r="J22">
-        <v>0.9973797810481257</v>
+        <v>0.9954450077877116</v>
       </c>
       <c r="K22">
-        <v>1.001919077737855</v>
+        <v>1.000330804841229</v>
       </c>
       <c r="L22">
-        <v>1.000931369232774</v>
+        <v>1.002614960863811</v>
       </c>
       <c r="M22">
-        <v>0.9979224655007741</v>
+        <v>0.9977426027447787</v>
       </c>
       <c r="N22">
-        <v>0.9979224655007741</v>
+        <v>0.9977426027447787</v>
       </c>
       <c r="O22">
-        <v>0.9977415706832247</v>
+        <v>0.9969767377590896</v>
       </c>
       <c r="P22">
-        <v>0.999254669579801</v>
+        <v>0.9986053367769286</v>
       </c>
       <c r="Q22">
-        <v>0.999254669579801</v>
+        <v>0.9986053367769286</v>
       </c>
       <c r="R22">
-        <v>0.9999207716193146</v>
+        <v>0.9990367037930037</v>
       </c>
       <c r="S22">
-        <v>0.9999207716193146</v>
+        <v>0.9990367037930037</v>
       </c>
       <c r="T22">
-        <v>0.9997897100597811</v>
+        <v>1.000146816911503</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.00090671385124</v>
+      </c>
+      <c r="D23">
+        <v>0.9879384216613287</v>
+      </c>
+      <c r="E23">
+        <v>1.004230690088187</v>
+      </c>
+      <c r="F23">
+        <v>0.9879384216613287</v>
+      </c>
+      <c r="G23">
+        <v>1.003261601140276</v>
+      </c>
+      <c r="H23">
+        <v>1.00090671385124</v>
+      </c>
+      <c r="I23">
+        <v>1.01231341068292</v>
+      </c>
+      <c r="J23">
+        <v>0.9924303594404007</v>
+      </c>
+      <c r="K23">
+        <v>1.00090671385124</v>
+      </c>
+      <c r="L23">
+        <v>1.004230690088187</v>
+      </c>
+      <c r="M23">
+        <v>0.9960845558747576</v>
+      </c>
+      <c r="N23">
+        <v>0.9960845558747576</v>
+      </c>
+      <c r="O23">
+        <v>0.9948664903966385</v>
+      </c>
+      <c r="P23">
+        <v>0.9976919418669183</v>
+      </c>
+      <c r="Q23">
+        <v>0.9976919418669183</v>
+      </c>
+      <c r="R23">
+        <v>0.9984956348629986</v>
+      </c>
+      <c r="S23">
+        <v>0.9984956348629986</v>
+      </c>
+      <c r="T23">
+        <v>1.000180199477392</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.034300192776148</v>
+      </c>
+      <c r="D24">
+        <v>1.082246127759765</v>
+      </c>
+      <c r="E24">
+        <v>0.9486879189360159</v>
+      </c>
+      <c r="F24">
+        <v>1.082246127759765</v>
+      </c>
+      <c r="G24">
+        <v>0.973647767142882</v>
+      </c>
+      <c r="H24">
+        <v>1.034300192776148</v>
+      </c>
+      <c r="I24">
+        <v>0.8459593346529771</v>
+      </c>
+      <c r="J24">
+        <v>1.065715200201808</v>
+      </c>
+      <c r="K24">
+        <v>1.034300192776148</v>
+      </c>
+      <c r="L24">
+        <v>0.9486879189360159</v>
+      </c>
+      <c r="M24">
+        <v>1.015467023347891</v>
+      </c>
+      <c r="N24">
+        <v>1.015467023347891</v>
+      </c>
+      <c r="O24">
+        <v>1.03221641563253</v>
+      </c>
+      <c r="P24">
+        <v>1.021744746490643</v>
+      </c>
+      <c r="Q24">
+        <v>1.021744746490643</v>
+      </c>
+      <c r="R24">
+        <v>1.024883608062019</v>
+      </c>
+      <c r="S24">
+        <v>1.024883608062019</v>
+      </c>
+      <c r="T24">
+        <v>0.9917594235782662</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9645569955738693</v>
+      </c>
+      <c r="D25">
+        <v>1.050095771542162</v>
+      </c>
+      <c r="E25">
+        <v>1.000643091019575</v>
+      </c>
+      <c r="F25">
+        <v>1.050095771542162</v>
+      </c>
+      <c r="G25">
+        <v>0.9901223627025181</v>
+      </c>
+      <c r="H25">
+        <v>0.9645569955738693</v>
+      </c>
+      <c r="I25">
+        <v>1.009428130733858</v>
+      </c>
+      <c r="J25">
+        <v>1.01827627897359</v>
+      </c>
+      <c r="K25">
+        <v>0.9645569955738693</v>
+      </c>
+      <c r="L25">
+        <v>1.000643091019575</v>
+      </c>
+      <c r="M25">
+        <v>1.025369431280869</v>
+      </c>
+      <c r="N25">
+        <v>1.025369431280869</v>
+      </c>
+      <c r="O25">
+        <v>1.023005047178442</v>
+      </c>
+      <c r="P25">
+        <v>1.005098619378535</v>
+      </c>
+      <c r="Q25">
+        <v>1.005098619378536</v>
+      </c>
+      <c r="R25">
+        <v>0.9949632134273689</v>
+      </c>
+      <c r="S25">
+        <v>0.9949632134273689</v>
+      </c>
+      <c r="T25">
+        <v>1.005520438424262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.03430275305951</v>
+      </c>
+      <c r="D26">
+        <v>1.082237970709322</v>
+      </c>
+      <c r="E26">
+        <v>0.9486896285328137</v>
+      </c>
+      <c r="F26">
+        <v>1.082237970709322</v>
+      </c>
+      <c r="G26">
+        <v>0.9736497251270588</v>
+      </c>
+      <c r="H26">
+        <v>1.03430275305951</v>
+      </c>
+      <c r="I26">
+        <v>0.8459635142590431</v>
+      </c>
+      <c r="J26">
+        <v>1.065711042282012</v>
+      </c>
+      <c r="K26">
+        <v>1.03430275305951</v>
+      </c>
+      <c r="L26">
+        <v>0.9486896285328137</v>
+      </c>
+      <c r="M26">
+        <v>1.015463799621068</v>
+      </c>
+      <c r="N26">
+        <v>1.015463799621068</v>
+      </c>
+      <c r="O26">
+        <v>1.032212880508049</v>
+      </c>
+      <c r="P26">
+        <v>1.021743450767215</v>
+      </c>
+      <c r="Q26">
+        <v>1.021743450767216</v>
+      </c>
+      <c r="R26">
+        <v>1.024883276340289</v>
+      </c>
+      <c r="S26">
+        <v>1.024883276340289</v>
+      </c>
+      <c r="T26">
+        <v>0.9917591056616267</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9645572990960503</v>
+      </c>
+      <c r="D27">
+        <v>1.050094095817835</v>
+      </c>
+      <c r="E27">
+        <v>1.000643624370919</v>
+      </c>
+      <c r="F27">
+        <v>1.050094095817835</v>
+      </c>
+      <c r="G27">
+        <v>0.9901228246439837</v>
+      </c>
+      <c r="H27">
+        <v>0.9645572990960503</v>
+      </c>
+      <c r="I27">
+        <v>1.009429866402673</v>
+      </c>
+      <c r="J27">
+        <v>1.018275162555036</v>
+      </c>
+      <c r="K27">
+        <v>0.9645572990960503</v>
+      </c>
+      <c r="L27">
+        <v>1.000643624370919</v>
+      </c>
+      <c r="M27">
+        <v>1.025368860094377</v>
+      </c>
+      <c r="N27">
+        <v>1.025368860094377</v>
+      </c>
+      <c r="O27">
+        <v>1.02300429424793</v>
+      </c>
+      <c r="P27">
+        <v>1.005098339761602</v>
+      </c>
+      <c r="Q27">
+        <v>1.005098339761602</v>
+      </c>
+      <c r="R27">
+        <v>0.9949630795952138</v>
+      </c>
+      <c r="S27">
+        <v>0.9949630795952138</v>
+      </c>
+      <c r="T27">
+        <v>1.005520478814416</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.136623824314236</v>
+      </c>
+      <c r="D28">
+        <v>0.6696068629591935</v>
+      </c>
+      <c r="E28">
+        <v>1.054310695847438</v>
+      </c>
+      <c r="F28">
+        <v>0.6696068629591935</v>
+      </c>
+      <c r="G28">
+        <v>1.078308678750116</v>
+      </c>
+      <c r="H28">
+        <v>1.136623824314236</v>
+      </c>
+      <c r="I28">
+        <v>1.134154223122591</v>
+      </c>
+      <c r="J28">
+        <v>0.8332665852981332</v>
+      </c>
+      <c r="K28">
+        <v>1.136623824314236</v>
+      </c>
+      <c r="L28">
+        <v>1.054310695847438</v>
+      </c>
+      <c r="M28">
+        <v>0.8619587794033159</v>
+      </c>
+      <c r="N28">
+        <v>0.8619587794033159</v>
+      </c>
+      <c r="O28">
+        <v>0.8523947147015883</v>
+      </c>
+      <c r="P28">
+        <v>0.9535137943736226</v>
+      </c>
+      <c r="Q28">
+        <v>0.9535137943736226</v>
+      </c>
+      <c r="R28">
+        <v>0.9992913018587759</v>
+      </c>
+      <c r="S28">
+        <v>0.9992913018587759</v>
+      </c>
+      <c r="T28">
+        <v>0.9843784783819514</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.093346531103648</v>
+      </c>
+      <c r="D29">
+        <v>0.7406921460338332</v>
+      </c>
+      <c r="E29">
+        <v>1.050225571126902</v>
+      </c>
+      <c r="F29">
+        <v>0.7406921460338332</v>
+      </c>
+      <c r="G29">
+        <v>1.062797270430239</v>
+      </c>
+      <c r="H29">
+        <v>1.093346531103648</v>
+      </c>
+      <c r="I29">
+        <v>1.130001111599779</v>
+      </c>
+      <c r="J29">
+        <v>0.8642747392287826</v>
+      </c>
+      <c r="K29">
+        <v>1.093346531103648</v>
+      </c>
+      <c r="L29">
+        <v>1.050225571126902</v>
+      </c>
+      <c r="M29">
+        <v>0.8954588585803674</v>
+      </c>
+      <c r="N29">
+        <v>0.8954588585803674</v>
+      </c>
+      <c r="O29">
+        <v>0.8850641521298392</v>
+      </c>
+      <c r="P29">
+        <v>0.9614214160881275</v>
+      </c>
+      <c r="Q29">
+        <v>0.9614214160881275</v>
+      </c>
+      <c r="R29">
+        <v>0.9944026948420075</v>
+      </c>
+      <c r="S29">
+        <v>0.9944026948420075</v>
+      </c>
+      <c r="T29">
+        <v>0.9902228949205304</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.007249812731797</v>
+      </c>
+      <c r="D30">
+        <v>0.8830605232962947</v>
+      </c>
+      <c r="E30">
+        <v>1.041724947091363</v>
+      </c>
+      <c r="F30">
+        <v>0.8830605232962947</v>
+      </c>
+      <c r="G30">
+        <v>1.031673886669895</v>
+      </c>
+      <c r="H30">
+        <v>1.007249812731797</v>
+      </c>
+      <c r="I30">
+        <v>1.120623414130241</v>
+      </c>
+      <c r="J30">
+        <v>0.9265901242946789</v>
+      </c>
+      <c r="K30">
+        <v>1.007249812731797</v>
+      </c>
+      <c r="L30">
+        <v>1.041724947091363</v>
+      </c>
+      <c r="M30">
+        <v>0.962392735193829</v>
+      </c>
+      <c r="N30">
+        <v>0.962392735193829</v>
+      </c>
+      <c r="O30">
+        <v>0.9504585315607789</v>
+      </c>
+      <c r="P30">
+        <v>0.9773450943731516</v>
+      </c>
+      <c r="Q30">
+        <v>0.9773450943731516</v>
+      </c>
+      <c r="R30">
+        <v>0.984821273962813</v>
+      </c>
+      <c r="S30">
+        <v>0.984821273962813</v>
+      </c>
+      <c r="T30">
+        <v>1.001820451369045</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9995971446845781</v>
+      </c>
+      <c r="D31">
+        <v>0.8789284785523939</v>
+      </c>
+      <c r="E31">
+        <v>1.047910706230491</v>
+      </c>
+      <c r="F31">
+        <v>0.8789284785523939</v>
+      </c>
+      <c r="G31">
+        <v>1.033825120488489</v>
+      </c>
+      <c r="H31">
+        <v>0.9995971446845781</v>
+      </c>
+      <c r="I31">
+        <v>1.141823537737481</v>
+      </c>
+      <c r="J31">
+        <v>0.9200825303620435</v>
+      </c>
+      <c r="K31">
+        <v>0.9995971446845781</v>
+      </c>
+      <c r="L31">
+        <v>1.047910706230491</v>
+      </c>
+      <c r="M31">
+        <v>0.9634195923914425</v>
+      </c>
+      <c r="N31">
+        <v>0.9634195923914425</v>
+      </c>
+      <c r="O31">
+        <v>0.9489739050483094</v>
+      </c>
+      <c r="P31">
+        <v>0.9754787764891543</v>
+      </c>
+      <c r="Q31">
+        <v>0.9754787764891543</v>
+      </c>
+      <c r="R31">
+        <v>0.9815083685380103</v>
+      </c>
+      <c r="S31">
+        <v>0.9815083685380103</v>
+      </c>
+      <c r="T31">
+        <v>1.003694586342579</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.179875123287671</v>
+      </c>
+      <c r="D32">
+        <v>0.5981552753424659</v>
+      </c>
+      <c r="E32">
+        <v>1.058554261643835</v>
+      </c>
+      <c r="F32">
+        <v>0.5981552753424659</v>
+      </c>
+      <c r="G32">
+        <v>1.093924756164383</v>
+      </c>
+      <c r="H32">
+        <v>1.179875123287671</v>
+      </c>
+      <c r="I32">
+        <v>1.13878534520548</v>
+      </c>
+      <c r="J32">
+        <v>0.8020069293150682</v>
+      </c>
+      <c r="K32">
+        <v>1.179875123287671</v>
+      </c>
+      <c r="L32">
+        <v>1.058554261643835</v>
+      </c>
+      <c r="M32">
+        <v>0.8283547684931507</v>
+      </c>
+      <c r="N32">
+        <v>0.8283547684931507</v>
+      </c>
+      <c r="O32">
+        <v>0.8195721554337899</v>
+      </c>
+      <c r="P32">
+        <v>0.9455282200913239</v>
+      </c>
+      <c r="Q32">
+        <v>0.9455282200913239</v>
+      </c>
+      <c r="R32">
+        <v>1.004114945890411</v>
+      </c>
+      <c r="S32">
+        <v>1.004114945890411</v>
+      </c>
+      <c r="T32">
+        <v>0.9785502818264838</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.00954496</v>
+      </c>
+      <c r="D33">
+        <v>0.8616867199999999</v>
+      </c>
+      <c r="E33">
+        <v>1.048866542105263</v>
+      </c>
+      <c r="F33">
+        <v>0.8616867199999999</v>
+      </c>
+      <c r="G33">
+        <v>1.037402524210526</v>
+      </c>
+      <c r="H33">
+        <v>1.00954496</v>
+      </c>
+      <c r="I33">
+        <v>1.141524285263158</v>
+      </c>
+      <c r="J33">
+        <v>0.9133194321052631</v>
+      </c>
+      <c r="K33">
+        <v>1.00954496</v>
+      </c>
+      <c r="L33">
+        <v>1.048866542105263</v>
+      </c>
+      <c r="M33">
+        <v>0.9552766310526315</v>
+      </c>
+      <c r="N33">
+        <v>0.9552766310526315</v>
+      </c>
+      <c r="O33">
+        <v>0.9412908980701754</v>
+      </c>
+      <c r="P33">
+        <v>0.9733660740350877</v>
+      </c>
+      <c r="Q33">
+        <v>0.9733660740350875</v>
+      </c>
+      <c r="R33">
+        <v>0.9824107955263156</v>
+      </c>
+      <c r="S33">
+        <v>0.9824107955263156</v>
+      </c>
+      <c r="T33">
+        <v>1.002057410614035</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.009542374736842</v>
+      </c>
+      <c r="D34">
+        <v>0.8616927552631577</v>
+      </c>
+      <c r="E34">
+        <v>1.048865569473684</v>
+      </c>
+      <c r="F34">
+        <v>0.8616927552631577</v>
+      </c>
+      <c r="G34">
+        <v>1.037401081052632</v>
+      </c>
+      <c r="H34">
+        <v>1.009542374736842</v>
+      </c>
+      <c r="I34">
+        <v>1.141521697368421</v>
+      </c>
+      <c r="J34">
+        <v>0.9133225657894736</v>
+      </c>
+      <c r="K34">
+        <v>1.009542374736842</v>
+      </c>
+      <c r="L34">
+        <v>1.048865569473684</v>
+      </c>
+      <c r="M34">
+        <v>0.9552791623684209</v>
+      </c>
+      <c r="N34">
+        <v>0.9552791623684209</v>
+      </c>
+      <c r="O34">
+        <v>0.9412936301754384</v>
+      </c>
+      <c r="P34">
+        <v>0.9733668998245614</v>
+      </c>
+      <c r="Q34">
+        <v>0.9733668998245614</v>
+      </c>
+      <c r="R34">
+        <v>0.9824107685526315</v>
+      </c>
+      <c r="S34">
+        <v>0.9824107685526315</v>
+      </c>
+      <c r="T34">
+        <v>1.002057673947368</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.9839861819070896</v>
+      </c>
+      <c r="D35">
+        <v>0.5680991800602656</v>
+      </c>
+      <c r="E35">
+        <v>1.178460010930626</v>
+      </c>
+      <c r="F35">
+        <v>0.5680991800602656</v>
+      </c>
+      <c r="G35">
+        <v>1.121762130213902</v>
+      </c>
+      <c r="H35">
+        <v>0.9839861819070896</v>
+      </c>
+      <c r="I35">
+        <v>1.533298290830531</v>
+      </c>
+      <c r="J35">
+        <v>0.7100074380130296</v>
+      </c>
+      <c r="K35">
+        <v>0.9839861819070896</v>
+      </c>
+      <c r="L35">
+        <v>1.178460010930626</v>
+      </c>
+      <c r="M35">
+        <v>0.8732795954954455</v>
+      </c>
+      <c r="N35">
+        <v>0.8732795954954455</v>
+      </c>
+      <c r="O35">
+        <v>0.8188555430013068</v>
+      </c>
+      <c r="P35">
+        <v>0.9101817909659936</v>
+      </c>
+      <c r="Q35">
+        <v>0.9101817909659936</v>
+      </c>
+      <c r="R35">
+        <v>0.9286328887012676</v>
+      </c>
+      <c r="S35">
+        <v>0.9286328887012676</v>
+      </c>
+      <c r="T35">
+        <v>1.015935538659241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9997058214045915</v>
+      </c>
+      <c r="D36">
+        <v>1.000130855112148</v>
+      </c>
+      <c r="E36">
+        <v>1.000110812651336</v>
+      </c>
+      <c r="F36">
+        <v>1.000130855112148</v>
+      </c>
+      <c r="G36">
+        <v>0.9999927389889561</v>
+      </c>
+      <c r="H36">
+        <v>0.9997058214045915</v>
+      </c>
+      <c r="I36">
+        <v>1.000389226638614</v>
+      </c>
+      <c r="J36">
+        <v>0.9999772812765965</v>
+      </c>
+      <c r="K36">
+        <v>0.9997058214045915</v>
+      </c>
+      <c r="L36">
+        <v>1.000110812651336</v>
+      </c>
+      <c r="M36">
+        <v>1.000120833881742</v>
+      </c>
+      <c r="N36">
+        <v>1.000120833881742</v>
+      </c>
+      <c r="O36">
+        <v>1.00007298301336</v>
+      </c>
+      <c r="P36">
+        <v>0.9999824963893583</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999824963893582</v>
+      </c>
+      <c r="R36">
+        <v>0.9999133276431665</v>
+      </c>
+      <c r="S36">
+        <v>0.9999133276431665</v>
+      </c>
+      <c r="T36">
+        <v>1.000051122678707</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000277697363478</v>
+      </c>
+      <c r="D37">
+        <v>0.9987324989840958</v>
+      </c>
+      <c r="E37">
+        <v>1.000344487491103</v>
+      </c>
+      <c r="F37">
+        <v>0.9987324989840958</v>
+      </c>
+      <c r="G37">
+        <v>1.000325014699578</v>
+      </c>
+      <c r="H37">
+        <v>1.000277697363478</v>
+      </c>
+      <c r="I37">
+        <v>1.000981696485296</v>
+      </c>
+      <c r="J37">
+        <v>0.9992658537755064</v>
+      </c>
+      <c r="K37">
+        <v>1.000277697363478</v>
+      </c>
+      <c r="L37">
+        <v>1.000344487491103</v>
+      </c>
+      <c r="M37">
+        <v>0.9995384932375995</v>
+      </c>
+      <c r="N37">
+        <v>0.9995384932375995</v>
+      </c>
+      <c r="O37">
+        <v>0.9994476134169018</v>
+      </c>
+      <c r="P37">
+        <v>0.9997848946128922</v>
+      </c>
+      <c r="Q37">
+        <v>0.9997848946128922</v>
+      </c>
+      <c r="R37">
+        <v>0.9999080953005386</v>
+      </c>
+      <c r="S37">
+        <v>0.9999080953005386</v>
+      </c>
+      <c r="T37">
+        <v>0.9999878747998427</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>1.001919077737855</v>
+      </c>
+      <c r="D38">
+        <v>0.9949135617687742</v>
+      </c>
+      <c r="E38">
+        <v>1.000931369232774</v>
+      </c>
+      <c r="F38">
+        <v>0.9949135617687742</v>
+      </c>
+      <c r="G38">
+        <v>1.001219331504391</v>
+      </c>
+      <c r="H38">
+        <v>1.001919077737855</v>
+      </c>
+      <c r="I38">
+        <v>1.002375139066767</v>
+      </c>
+      <c r="J38">
+        <v>0.9973797810481257</v>
+      </c>
+      <c r="K38">
+        <v>1.001919077737855</v>
+      </c>
+      <c r="L38">
+        <v>1.000931369232774</v>
+      </c>
+      <c r="M38">
+        <v>0.9979224655007741</v>
+      </c>
+      <c r="N38">
+        <v>0.9979224655007741</v>
+      </c>
+      <c r="O38">
+        <v>0.9977415706832247</v>
+      </c>
+      <c r="P38">
+        <v>0.999254669579801</v>
+      </c>
+      <c r="Q38">
+        <v>0.999254669579801</v>
+      </c>
+      <c r="R38">
+        <v>0.9999207716193146</v>
+      </c>
+      <c r="S38">
+        <v>0.9999207716193146</v>
+      </c>
+      <c r="T38">
+        <v>0.9997897100597811</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.005521707255991</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>0.9874978507407578</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.001859137017016</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9874978507407578</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.002926937138495</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.005521707255991</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.004450929830387</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9938180930815619</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.005521707255991</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.001859137017016</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9946784938788868</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9946784938788868</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9943916936131117</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9982928983379216</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9982928983379216</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.000100100567439</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.000100100567439</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9993457758440348</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.019717677458119</v>
+      </c>
+      <c r="D40">
+        <v>0.9458485832519392</v>
+      </c>
+      <c r="E40">
+        <v>1.010240654896297</v>
+      </c>
+      <c r="F40">
+        <v>0.9458485832519392</v>
+      </c>
+      <c r="G40">
+        <v>1.013003637375852</v>
+      </c>
+      <c r="H40">
+        <v>1.019717677458119</v>
+      </c>
+      <c r="I40">
+        <v>1.025978783484889</v>
+      </c>
+      <c r="J40">
+        <v>0.972070603395796</v>
+      </c>
+      <c r="K40">
+        <v>1.019717677458119</v>
+      </c>
+      <c r="L40">
+        <v>1.010240654896297</v>
+      </c>
+      <c r="M40">
+        <v>0.9780446190741183</v>
+      </c>
+      <c r="N40">
+        <v>0.9780446190741183</v>
+      </c>
+      <c r="O40">
+        <v>0.9760532805146775</v>
+      </c>
+      <c r="P40">
+        <v>0.9919356385354519</v>
+      </c>
+      <c r="Q40">
+        <v>0.9919356385354519</v>
+      </c>
+      <c r="R40">
+        <v>0.9988811482661186</v>
+      </c>
+      <c r="S40">
+        <v>0.9988811482661186</v>
+      </c>
+      <c r="T40">
+        <v>0.9978099899771489</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9935864881742685</v>
+      </c>
+      <c r="D41">
+        <v>1.029162709885573</v>
+      </c>
+      <c r="E41">
+        <v>0.9922651827350074</v>
+      </c>
+      <c r="F41">
+        <v>1.029162709885573</v>
+      </c>
+      <c r="G41">
+        <v>0.9926504020608514</v>
+      </c>
+      <c r="H41">
+        <v>0.9935864881742685</v>
+      </c>
+      <c r="I41">
+        <v>0.9794928591457728</v>
+      </c>
+      <c r="J41">
+        <v>1.016186294331396</v>
+      </c>
+      <c r="K41">
+        <v>0.9935864881742685</v>
+      </c>
+      <c r="L41">
+        <v>0.9922651827350074</v>
+      </c>
+      <c r="M41">
+        <v>1.01071394631029</v>
+      </c>
+      <c r="N41">
+        <v>1.01071394631029</v>
+      </c>
+      <c r="O41">
+        <v>1.012538062317325</v>
+      </c>
+      <c r="P41">
+        <v>1.005004793598283</v>
+      </c>
+      <c r="Q41">
+        <v>1.005004793598283</v>
+      </c>
+      <c r="R41">
+        <v>1.002150217242279</v>
+      </c>
+      <c r="S41">
+        <v>1.002150217242279</v>
+      </c>
+      <c r="T41">
+        <v>1.000557322722145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.074623076490691</v>
+      </c>
+      <c r="D42">
+        <v>0.7896290312270097</v>
+      </c>
+      <c r="E42">
+        <v>1.04061783625456</v>
+      </c>
+      <c r="F42">
+        <v>0.7896290312270097</v>
+      </c>
+      <c r="G42">
+        <v>1.050531897579342</v>
+      </c>
+      <c r="H42">
+        <v>1.074623076490691</v>
+      </c>
+      <c r="I42">
+        <v>1.102683263376914</v>
+      </c>
+      <c r="J42">
+        <v>0.8915247388251153</v>
+      </c>
+      <c r="K42">
+        <v>1.074623076490691</v>
+      </c>
+      <c r="L42">
+        <v>1.04061783625456</v>
+      </c>
+      <c r="M42">
+        <v>0.9151234337407845</v>
+      </c>
+      <c r="N42">
+        <v>0.9151234337407845</v>
+      </c>
+      <c r="O42">
+        <v>0.9072572021022282</v>
+      </c>
+      <c r="P42">
+        <v>0.9682899813240867</v>
+      </c>
+      <c r="Q42">
+        <v>0.9682899813240868</v>
+      </c>
+      <c r="R42">
+        <v>0.994873255115738</v>
+      </c>
+      <c r="S42">
+        <v>0.994873255115738</v>
+      </c>
+      <c r="T42">
+        <v>0.9916016406256052</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GammaFiber2F-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/GammaFiber2F-HW25.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
     <t>[2, 2, 2]</t>
   </si>
   <si>
     <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,68 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -612,121 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>28</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>29</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>30</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -734,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.007447623847035</v>
+        <v>1.000060748238406</v>
       </c>
       <c r="D3">
-        <v>0.9828372338957695</v>
+        <v>0.9976702421343728</v>
       </c>
       <c r="E3">
-        <v>1.002641029315698</v>
+        <v>1.000880848603676</v>
       </c>
       <c r="F3">
-        <v>1.007447623847035</v>
+        <v>0.9976702421343728</v>
       </c>
       <c r="G3">
-        <v>1.006414954751475</v>
+        <v>1.000641751929709</v>
       </c>
       <c r="H3">
-        <v>0.99143077528473</v>
+        <v>1.000060748238406</v>
       </c>
       <c r="I3">
-        <v>1.004042367459859</v>
+        <v>1.002596503306836</v>
       </c>
       <c r="J3">
-        <v>0.9828372338957695</v>
+        <v>0.9984931144311738</v>
       </c>
       <c r="K3">
-        <v>1.007447623847035</v>
+        <v>1.000060748238406</v>
       </c>
       <c r="L3">
-        <v>1.002641029315698</v>
+        <v>1.000880848603676</v>
       </c>
       <c r="M3">
-        <v>0.9927391316057339</v>
+        <v>0.9992755453690246</v>
       </c>
       <c r="N3">
-        <v>0.9927391316057339</v>
+        <v>0.9992755453690246</v>
       </c>
       <c r="O3">
-        <v>0.9923030128320659</v>
+        <v>0.9990147350564077</v>
       </c>
       <c r="P3">
-        <v>0.9976419623528342</v>
+        <v>0.9995372796588186</v>
       </c>
       <c r="Q3">
-        <v>0.9976419623528344</v>
+        <v>0.9995372796588186</v>
       </c>
       <c r="R3">
-        <v>1.000093377726385</v>
+        <v>0.9996681468037155</v>
       </c>
       <c r="S3">
-        <v>1.000093377726385</v>
+        <v>0.9996681468037155</v>
       </c>
       <c r="T3">
-        <v>0.9991356640924277</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40">
+        <v>1.000057201440696</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -796,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.014331184765702</v>
+        <v>1.019717677458119</v>
       </c>
       <c r="D4">
-        <v>0.9668497603831315</v>
+        <v>0.9458485832519392</v>
       </c>
       <c r="E4">
-        <v>1.00511742868782</v>
+        <v>1.010240654896297</v>
       </c>
       <c r="F4">
-        <v>1.014331184765702</v>
+        <v>0.9458485832519392</v>
       </c>
       <c r="G4">
-        <v>1.012411353958875</v>
+        <v>1.013003637375852</v>
       </c>
       <c r="H4">
-        <v>0.9834636640150761</v>
+        <v>1.019717677458119</v>
       </c>
       <c r="I4">
-        <v>1.007803652727414</v>
+        <v>1.025978783484889</v>
       </c>
       <c r="J4">
-        <v>0.9668497603831315</v>
+        <v>0.972070603395796</v>
       </c>
       <c r="K4">
-        <v>1.014331184765702</v>
+        <v>1.019717677458119</v>
       </c>
       <c r="L4">
-        <v>1.00511742868782</v>
+        <v>1.010240654896297</v>
       </c>
       <c r="M4">
-        <v>0.9859835945354758</v>
+        <v>0.9780446190741183</v>
       </c>
       <c r="N4">
-        <v>0.9859835945354758</v>
+        <v>0.9780446190741183</v>
       </c>
       <c r="O4">
-        <v>0.9851436176953426</v>
+        <v>0.9760532805146775</v>
       </c>
       <c r="P4">
-        <v>0.9954327912788846</v>
+        <v>0.9919356385354519</v>
       </c>
       <c r="Q4">
-        <v>0.9954327912788846</v>
+        <v>0.9919356385354519</v>
       </c>
       <c r="R4">
-        <v>1.000157389650589</v>
+        <v>0.9988811482661186</v>
       </c>
       <c r="S4">
-        <v>1.000157389650589</v>
+        <v>0.9988811482661186</v>
       </c>
       <c r="T4">
-        <v>0.9983295074230032</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40">
+        <v>0.9978099899771489</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -858,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.026924222758832</v>
+        <v>1.009509716570607</v>
       </c>
       <c r="D5">
-        <v>0.9368783716792713</v>
+        <v>0.861248113004321</v>
       </c>
       <c r="E5">
-        <v>1.009967245172295</v>
+        <v>1.049058522435158</v>
       </c>
       <c r="F5">
-        <v>1.026924222758832</v>
+        <v>0.861248113004321</v>
       </c>
       <c r="G5">
-        <v>1.024421138031059</v>
+        <v>1.037528259394814</v>
       </c>
       <c r="H5">
-        <v>0.9683229310504998</v>
+        <v>1.009509716570607</v>
       </c>
       <c r="I5">
-        <v>1.014910963536438</v>
+        <v>1.142104114906337</v>
       </c>
       <c r="J5">
-        <v>0.9368783716792713</v>
+        <v>0.9130168078530274</v>
       </c>
       <c r="K5">
-        <v>1.026924222758832</v>
+        <v>1.009509716570607</v>
       </c>
       <c r="L5">
-        <v>1.009967245172295</v>
+        <v>1.049058522435158</v>
       </c>
       <c r="M5">
-        <v>0.973422808425783</v>
+        <v>0.9551533177197397</v>
       </c>
       <c r="N5">
-        <v>0.973422808425783</v>
+        <v>0.9551533177197397</v>
       </c>
       <c r="O5">
-        <v>0.9717228493006886</v>
+        <v>0.9411078144308357</v>
       </c>
       <c r="P5">
-        <v>0.9912566132034658</v>
+        <v>0.9732721173366956</v>
       </c>
       <c r="Q5">
-        <v>0.9912566132034658</v>
+        <v>0.9732721173366956</v>
       </c>
       <c r="R5">
-        <v>1.000173515592307</v>
+        <v>0.9823315171451735</v>
       </c>
       <c r="S5">
-        <v>1.000173515592307</v>
+        <v>0.9823315171451735</v>
       </c>
       <c r="T5">
-        <v>0.996904145371399</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40">
+        <v>1.002077589027378</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -920,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.039192636354799</v>
+        <v>0.9839861819070896</v>
       </c>
       <c r="D6">
-        <v>0.9076719595118805</v>
+        <v>0.5680991800602656</v>
       </c>
       <c r="E6">
-        <v>1.014740169046202</v>
+        <v>1.178460010930626</v>
       </c>
       <c r="F6">
-        <v>1.039192636354799</v>
+        <v>0.5680991800602656</v>
       </c>
       <c r="G6">
-        <v>1.036096725197206</v>
+        <v>1.121762130213902</v>
       </c>
       <c r="H6">
-        <v>0.9535191446675004</v>
+        <v>0.9839861819070896</v>
       </c>
       <c r="I6">
-        <v>1.021869159327755</v>
+        <v>1.533298290830531</v>
       </c>
       <c r="J6">
-        <v>0.9076719595118805</v>
+        <v>0.7100074380130296</v>
       </c>
       <c r="K6">
-        <v>1.039192636354799</v>
+        <v>0.9839861819070896</v>
       </c>
       <c r="L6">
-        <v>1.014740169046202</v>
+        <v>1.178460010930626</v>
       </c>
       <c r="M6">
-        <v>0.9612060642790414</v>
+        <v>0.8732795954954455</v>
       </c>
       <c r="N6">
-        <v>0.9612060642790414</v>
+        <v>0.8732795954954455</v>
       </c>
       <c r="O6">
-        <v>0.9586437577418611</v>
+        <v>0.8188555430013068</v>
       </c>
       <c r="P6">
-        <v>0.9872015883042939</v>
+        <v>0.9101817909659936</v>
       </c>
       <c r="Q6">
-        <v>0.9872015883042939</v>
+        <v>0.9101817909659936</v>
       </c>
       <c r="R6">
-        <v>1.00019935031692</v>
+        <v>0.9286328887012676</v>
       </c>
       <c r="S6">
-        <v>1.00019935031692</v>
+        <v>0.9286328887012676</v>
       </c>
       <c r="T6">
-        <v>0.9955149656842238</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40">
+        <v>1.015935538659241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -982,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000000122759293</v>
+        <v>1.007965985913276</v>
       </c>
       <c r="D7">
-        <v>0.9991016795993853</v>
+        <v>0.9812759867702117</v>
       </c>
       <c r="E7">
-        <v>1.000352653400291</v>
+        <v>1.002947219214197</v>
       </c>
       <c r="F7">
-        <v>1.000000122759293</v>
+        <v>0.9812759867702117</v>
       </c>
       <c r="G7">
-        <v>1.001045998265533</v>
+        <v>1.004410415395896</v>
       </c>
       <c r="H7">
-        <v>0.9994097019400648</v>
+        <v>1.007965985913276</v>
       </c>
       <c r="I7">
-        <v>1.000249874256598</v>
+        <v>1.007133604462379</v>
       </c>
       <c r="J7">
-        <v>0.9991016795993853</v>
+        <v>0.9906563941014248</v>
       </c>
       <c r="K7">
-        <v>1.000000122759293</v>
+        <v>1.007965985913276</v>
       </c>
       <c r="L7">
-        <v>1.000352653400291</v>
+        <v>1.002947219214197</v>
       </c>
       <c r="M7">
-        <v>0.9997271664998379</v>
+        <v>0.9921116029922045</v>
       </c>
       <c r="N7">
-        <v>0.9997271664998379</v>
+        <v>0.9921116029922045</v>
       </c>
       <c r="O7">
-        <v>0.9996213449799135</v>
+        <v>0.9916265333619446</v>
       </c>
       <c r="P7">
-        <v>0.9998181519196563</v>
+        <v>0.9973963972992282</v>
       </c>
       <c r="Q7">
-        <v>0.9998181519196563</v>
+        <v>0.9973963972992282</v>
       </c>
       <c r="R7">
-        <v>0.9998636446295655</v>
+        <v>1.00003879445274</v>
       </c>
       <c r="S7">
-        <v>0.9998636446295655</v>
+        <v>1.00003879445274</v>
       </c>
       <c r="T7">
-        <v>1.000026671703528</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40">
+        <v>0.9990649343095641</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1044,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000060748238406</v>
+        <v>1.000277697363478</v>
       </c>
       <c r="D8">
-        <v>0.9976702421343728</v>
+        <v>0.9987324989840958</v>
       </c>
       <c r="E8">
-        <v>1.000880848603676</v>
+        <v>1.000344487491103</v>
       </c>
       <c r="F8">
-        <v>1.000060748238406</v>
+        <v>0.9987324989840958</v>
       </c>
       <c r="G8">
-        <v>1.002596503306836</v>
+        <v>1.000325014699578</v>
       </c>
       <c r="H8">
-        <v>0.9984931144311738</v>
+        <v>1.000277697363478</v>
       </c>
       <c r="I8">
-        <v>1.000641751929709</v>
+        <v>1.000981696485296</v>
       </c>
       <c r="J8">
-        <v>0.9976702421343728</v>
+        <v>0.9992658537755064</v>
       </c>
       <c r="K8">
-        <v>1.000060748238406</v>
+        <v>1.000277697363478</v>
       </c>
       <c r="L8">
-        <v>1.000880848603676</v>
+        <v>1.000344487491103</v>
       </c>
       <c r="M8">
-        <v>0.9992755453690246</v>
+        <v>0.9995384932375995</v>
       </c>
       <c r="N8">
-        <v>0.9992755453690246</v>
+        <v>0.9995384932375995</v>
       </c>
       <c r="O8">
-        <v>0.9990147350564077</v>
+        <v>0.9994476134169018</v>
       </c>
       <c r="P8">
-        <v>0.9995372796588186</v>
+        <v>0.9997848946128922</v>
       </c>
       <c r="Q8">
-        <v>0.9995372796588186</v>
+        <v>0.9997848946128922</v>
       </c>
       <c r="R8">
-        <v>0.9996681468037155</v>
+        <v>0.9999080953005386</v>
       </c>
       <c r="S8">
-        <v>0.9996681468037155</v>
+        <v>0.9999080953005386</v>
       </c>
       <c r="T8">
-        <v>1.000057201440696</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40">
+        <v>0.9999878747998427</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1106,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000229065609731</v>
+        <v>1.014331184765702</v>
       </c>
       <c r="D9">
-        <v>0.9966419461771461</v>
+        <v>0.9668497603831318</v>
       </c>
       <c r="E9">
-        <v>1.001190601366218</v>
+        <v>1.00511742868782</v>
       </c>
       <c r="F9">
-        <v>1.000229065609731</v>
+        <v>0.9668497603831318</v>
       </c>
       <c r="G9">
-        <v>1.003469108231593</v>
+        <v>1.007803652727414</v>
       </c>
       <c r="H9">
-        <v>0.9978845753205803</v>
+        <v>1.014331184765702</v>
       </c>
       <c r="I9">
-        <v>1.000910269727242</v>
+        <v>1.012411353958875</v>
       </c>
       <c r="J9">
-        <v>0.9966419461771461</v>
+        <v>0.9834636640150761</v>
       </c>
       <c r="K9">
-        <v>1.000229065609731</v>
+        <v>1.014331184765702</v>
       </c>
       <c r="L9">
-        <v>1.001190601366218</v>
+        <v>1.00511742868782</v>
       </c>
       <c r="M9">
-        <v>0.9989162737716819</v>
+        <v>0.9859835945354758</v>
       </c>
       <c r="N9">
-        <v>0.9989162737716819</v>
+        <v>0.9859835945354758</v>
       </c>
       <c r="O9">
-        <v>0.9985723742879813</v>
+        <v>0.9851436176953426</v>
       </c>
       <c r="P9">
-        <v>0.9993538710510318</v>
+        <v>0.9954327912788846</v>
       </c>
       <c r="Q9">
-        <v>0.9993538710510318</v>
+        <v>0.9954327912788846</v>
       </c>
       <c r="R9">
-        <v>0.9995726696907066</v>
+        <v>1.000157389650589</v>
       </c>
       <c r="S9">
-        <v>0.9995726696907066</v>
+        <v>1.000157389650589</v>
       </c>
       <c r="T9">
-        <v>1.000054261072085</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40">
+        <v>0.9983295074230032</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1168,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000330804841229</v>
+        <v>0.9814807406383642</v>
       </c>
       <c r="D10">
-        <v>0.9928702446257462</v>
+        <v>0.5637211484596454</v>
       </c>
       <c r="E10">
-        <v>1.002614960863811</v>
+        <v>1.181725399139941</v>
       </c>
       <c r="F10">
-        <v>1.000330804841229</v>
+        <v>0.5637211484596454</v>
       </c>
       <c r="G10">
-        <v>1.007670858197999</v>
+        <v>1.123345061054826</v>
       </c>
       <c r="H10">
-        <v>0.9954450077877116</v>
+        <v>0.9814807406383642</v>
       </c>
       <c r="I10">
-        <v>1.001949025152521</v>
+        <v>1.544158019351451</v>
       </c>
       <c r="J10">
-        <v>0.9928702446257462</v>
+        <v>0.7057313872392016</v>
       </c>
       <c r="K10">
-        <v>1.000330804841229</v>
+        <v>0.9814807406383642</v>
       </c>
       <c r="L10">
-        <v>1.002614960863811</v>
+        <v>1.181725399139941</v>
       </c>
       <c r="M10">
-        <v>0.9977426027447787</v>
+        <v>0.872723273799793</v>
       </c>
       <c r="N10">
-        <v>0.9977426027447787</v>
+        <v>0.872723273799793</v>
       </c>
       <c r="O10">
-        <v>0.9969767377590896</v>
+        <v>0.8170593116129292</v>
       </c>
       <c r="P10">
-        <v>0.9986053367769286</v>
+        <v>0.9089757627459835</v>
       </c>
       <c r="Q10">
-        <v>0.9986053367769286</v>
+        <v>0.9089757627459832</v>
       </c>
       <c r="R10">
-        <v>0.9990367037930037</v>
+        <v>0.9271020072190785</v>
       </c>
       <c r="S10">
-        <v>0.9990367037930037</v>
+        <v>0.9271020072190785</v>
       </c>
       <c r="T10">
-        <v>1.000146816911503</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40">
+        <v>1.016693625980571</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1230,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.00090671385124</v>
+        <v>1.023596787489033</v>
       </c>
       <c r="D11">
-        <v>0.9879384216613287</v>
+        <v>0.9462171026569168</v>
       </c>
       <c r="E11">
-        <v>1.004230690088186</v>
+        <v>1.008020201890824</v>
       </c>
       <c r="F11">
-        <v>1.00090671385124</v>
+        <v>0.9462171026569168</v>
       </c>
       <c r="G11">
-        <v>1.01231341068292</v>
+        <v>1.012561481869487</v>
       </c>
       <c r="H11">
-        <v>0.9924303594404007</v>
+        <v>1.023596787489033</v>
       </c>
       <c r="I11">
-        <v>1.003261601140276</v>
+        <v>1.019227021969723</v>
       </c>
       <c r="J11">
-        <v>0.9879384216613287</v>
+        <v>0.9734767741658642</v>
       </c>
       <c r="K11">
-        <v>1.00090671385124</v>
+        <v>1.023596787489033</v>
       </c>
       <c r="L11">
-        <v>1.004230690088186</v>
+        <v>1.008020201890824</v>
       </c>
       <c r="M11">
-        <v>0.9960845558747575</v>
+        <v>0.9771186522738702</v>
       </c>
       <c r="N11">
-        <v>0.9960845558747575</v>
+        <v>0.9771186522738702</v>
       </c>
       <c r="O11">
-        <v>0.9948664903966385</v>
+        <v>0.9759046929045349</v>
       </c>
       <c r="P11">
-        <v>0.9976919418669182</v>
+        <v>0.9926113640122578</v>
       </c>
       <c r="Q11">
-        <v>0.9976919418669182</v>
+        <v>0.9926113640122578</v>
       </c>
       <c r="R11">
-        <v>0.9984956348629985</v>
+        <v>1.000357719881452</v>
       </c>
       <c r="S11">
-        <v>0.9984956348629985</v>
+        <v>1.000357719881452</v>
       </c>
       <c r="T11">
-        <v>1.000180199477392</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40">
+        <v>0.997183228340308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1292,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.034300192776148</v>
+        <v>0.9933610385789481</v>
       </c>
       <c r="D12">
-        <v>1.082246127759765</v>
+        <v>0.8697921374105255</v>
       </c>
       <c r="E12">
-        <v>0.948687918936016</v>
+        <v>1.054998271705262</v>
       </c>
       <c r="F12">
-        <v>1.034300192776148</v>
+        <v>0.8697921374105255</v>
       </c>
       <c r="G12">
-        <v>0.8459593346529771</v>
+        <v>1.037028235536844</v>
       </c>
       <c r="H12">
-        <v>1.065715200201808</v>
+        <v>0.9933610385789481</v>
       </c>
       <c r="I12">
-        <v>0.973647767142882</v>
+        <v>1.164200982557895</v>
       </c>
       <c r="J12">
-        <v>1.082246127759765</v>
+        <v>0.9116372990526325</v>
       </c>
       <c r="K12">
-        <v>1.034300192776148</v>
+        <v>0.9933610385789481</v>
       </c>
       <c r="L12">
-        <v>0.948687918936016</v>
+        <v>1.054998271705262</v>
       </c>
       <c r="M12">
-        <v>1.015467023347891</v>
+        <v>0.9623952045578937</v>
       </c>
       <c r="N12">
-        <v>1.015467023347891</v>
+        <v>0.9623952045578937</v>
       </c>
       <c r="O12">
-        <v>1.03221641563253</v>
+        <v>0.9454759027228067</v>
       </c>
       <c r="P12">
-        <v>1.021744746490643</v>
+        <v>0.9727171492315785</v>
       </c>
       <c r="Q12">
-        <v>1.021744746490643</v>
+        <v>0.9727171492315785</v>
       </c>
       <c r="R12">
-        <v>1.024883608062019</v>
+        <v>0.9778781215684209</v>
       </c>
       <c r="S12">
-        <v>1.024883608062019</v>
+        <v>0.9778781215684209</v>
       </c>
       <c r="T12">
-        <v>0.9917594235782662</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40">
+        <v>1.005169660807018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1354,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9645569955738693</v>
+        <v>0.9793319188757424</v>
       </c>
       <c r="D13">
-        <v>1.050095771542162</v>
+        <v>1.104888321497278</v>
       </c>
       <c r="E13">
-        <v>1.000643091019575</v>
+        <v>0.9710914623640606</v>
       </c>
       <c r="F13">
-        <v>0.9645569955738693</v>
+        <v>1.104888321497278</v>
       </c>
       <c r="G13">
-        <v>1.009428130733858</v>
+        <v>0.9734939278752489</v>
       </c>
       <c r="H13">
-        <v>1.01827627897359</v>
+        <v>0.9793319188757424</v>
       </c>
       <c r="I13">
-        <v>0.9901223627025181</v>
+        <v>0.9227792040588334</v>
       </c>
       <c r="J13">
-        <v>1.050095771542162</v>
+        <v>1.058589956203818</v>
       </c>
       <c r="K13">
-        <v>0.9645569955738693</v>
+        <v>0.9793319188757424</v>
       </c>
       <c r="L13">
-        <v>1.000643091019575</v>
+        <v>0.9710914623640606</v>
       </c>
       <c r="M13">
-        <v>1.025369431280869</v>
+        <v>1.037989891930669</v>
       </c>
       <c r="N13">
-        <v>1.025369431280869</v>
+        <v>1.037989891930669</v>
       </c>
       <c r="O13">
-        <v>1.023005047178442</v>
+        <v>1.044856580021719</v>
       </c>
       <c r="P13">
-        <v>1.005098619378535</v>
+        <v>1.018437234245694</v>
       </c>
       <c r="Q13">
-        <v>1.005098619378536</v>
+        <v>1.018437234245694</v>
       </c>
       <c r="R13">
-        <v>0.9949632134273689</v>
+        <v>1.008660905403206</v>
       </c>
       <c r="S13">
-        <v>0.9949632134273689</v>
+        <v>1.008660905403206</v>
       </c>
       <c r="T13">
-        <v>1.005520438424262</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40">
+        <v>1.001695798479163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1416,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.03430275305951</v>
+        <v>0.9618347199999993</v>
       </c>
       <c r="D14">
-        <v>1.082237970709322</v>
+        <v>0.2502035199999997</v>
       </c>
       <c r="E14">
-        <v>0.9486896285328138</v>
+        <v>1.315735799999999</v>
       </c>
       <c r="F14">
-        <v>1.03430275305951</v>
+        <v>0.2502035199999997</v>
       </c>
       <c r="G14">
-        <v>0.8459635142590431</v>
+        <v>1.212557700000001</v>
       </c>
       <c r="H14">
-        <v>1.065711042282012</v>
+        <v>0.9618347199999993</v>
       </c>
       <c r="I14">
-        <v>0.9736497251270588</v>
+        <v>1.947381500000003</v>
       </c>
       <c r="J14">
-        <v>1.082237970709322</v>
+        <v>0.4918962299999994</v>
       </c>
       <c r="K14">
-        <v>1.03430275305951</v>
+        <v>0.9618347199999993</v>
       </c>
       <c r="L14">
-        <v>0.9486896285328138</v>
+        <v>1.315735799999999</v>
       </c>
       <c r="M14">
-        <v>1.015463799621068</v>
+        <v>0.7829696599999996</v>
       </c>
       <c r="N14">
-        <v>1.015463799621068</v>
+        <v>0.7829696599999996</v>
       </c>
       <c r="O14">
-        <v>1.032212880508049</v>
+        <v>0.6859451833333328</v>
       </c>
       <c r="P14">
-        <v>1.021743450767215</v>
+        <v>0.8425913466666661</v>
       </c>
       <c r="Q14">
-        <v>1.021743450767216</v>
+        <v>0.8425913466666661</v>
       </c>
       <c r="R14">
-        <v>1.024883276340289</v>
+        <v>0.8724021899999994</v>
       </c>
       <c r="S14">
-        <v>1.024883276340289</v>
+        <v>0.8724021899999994</v>
       </c>
       <c r="T14">
-        <v>0.9917591056616267</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40">
+        <v>1.029934911666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1478,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9645572990960503</v>
+        <v>1.1798756</v>
       </c>
       <c r="D15">
-        <v>1.050094095817835</v>
+        <v>0.5981506599999999</v>
       </c>
       <c r="E15">
-        <v>1.000643624370919</v>
+        <v>1.0585559</v>
       </c>
       <c r="F15">
-        <v>0.9645572990960503</v>
+        <v>0.5981506599999999</v>
       </c>
       <c r="G15">
-        <v>1.009429866402673</v>
+        <v>1.093926</v>
       </c>
       <c r="H15">
-        <v>1.018275162555036</v>
+        <v>1.1798756</v>
       </c>
       <c r="I15">
-        <v>0.9901228246439837</v>
+        <v>1.1387904</v>
       </c>
       <c r="J15">
-        <v>1.050094095817835</v>
+        <v>0.80200388</v>
       </c>
       <c r="K15">
-        <v>0.9645572990960503</v>
+        <v>1.1798756</v>
       </c>
       <c r="L15">
-        <v>1.000643624370919</v>
+        <v>1.0585559</v>
       </c>
       <c r="M15">
-        <v>1.025368860094377</v>
+        <v>0.82835328</v>
       </c>
       <c r="N15">
-        <v>1.025368860094377</v>
+        <v>0.82835328</v>
       </c>
       <c r="O15">
-        <v>1.02300429424793</v>
+        <v>0.8195701466666666</v>
       </c>
       <c r="P15">
-        <v>1.005098339761602</v>
+        <v>0.9455273866666666</v>
       </c>
       <c r="Q15">
-        <v>1.005098339761602</v>
+        <v>0.9455273866666666</v>
       </c>
       <c r="R15">
-        <v>0.9949630795952138</v>
+        <v>1.00411444</v>
       </c>
       <c r="S15">
-        <v>0.9949630795952138</v>
+        <v>1.00411444</v>
       </c>
       <c r="T15">
-        <v>1.005520478814416</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40">
+        <v>0.9785504066666665</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1540,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9997058214045914</v>
+        <v>1.1798742</v>
       </c>
       <c r="D16">
-        <v>1.000130855112148</v>
+        <v>0.5981647</v>
       </c>
       <c r="E16">
-        <v>1.000110812651336</v>
+        <v>1.0585509</v>
       </c>
       <c r="F16">
-        <v>0.9997058214045914</v>
+        <v>0.5981647</v>
       </c>
       <c r="G16">
-        <v>1.000389226638614</v>
+        <v>1.0939222</v>
       </c>
       <c r="H16">
-        <v>0.9999772812765969</v>
+        <v>1.1798742</v>
       </c>
       <c r="I16">
-        <v>0.999992738988956</v>
+        <v>1.1387751</v>
       </c>
       <c r="J16">
-        <v>1.000130855112148</v>
+        <v>0.80201316</v>
       </c>
       <c r="K16">
-        <v>0.9997058214045914</v>
+        <v>1.1798742</v>
       </c>
       <c r="L16">
-        <v>1.000110812651336</v>
+        <v>1.0585509</v>
       </c>
       <c r="M16">
-        <v>1.000120833881742</v>
+        <v>0.8283578</v>
       </c>
       <c r="N16">
-        <v>1.000120833881742</v>
+        <v>0.8283578</v>
       </c>
       <c r="O16">
-        <v>1.00007298301336</v>
+        <v>0.8195762533333334</v>
       </c>
       <c r="P16">
-        <v>0.9999824963893583</v>
+        <v>0.9455299333333334</v>
       </c>
       <c r="Q16">
-        <v>0.9999824963893585</v>
+        <v>0.9455299333333332</v>
       </c>
       <c r="R16">
-        <v>0.9999133276431668</v>
+        <v>1.004116</v>
       </c>
       <c r="S16">
-        <v>0.9999133276431668</v>
+        <v>1.004116</v>
       </c>
       <c r="T16">
-        <v>1.000051122678707</v>
+        <v>0.9785500433333332</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1602,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.000277697363478</v>
+        <v>0.83937091</v>
       </c>
       <c r="D17">
-        <v>0.9987324989840958</v>
+        <v>1.327594</v>
       </c>
       <c r="E17">
-        <v>1.000344487491103</v>
+        <v>0.96193414</v>
       </c>
       <c r="F17">
-        <v>1.000277697363478</v>
+        <v>1.327594</v>
       </c>
       <c r="G17">
-        <v>1.000981696485296</v>
+        <v>0.9262014200000001</v>
       </c>
       <c r="H17">
-        <v>0.9992658537755064</v>
+        <v>0.83937091</v>
       </c>
       <c r="I17">
-        <v>1.000325014699577</v>
+        <v>0.9180136600000001</v>
       </c>
       <c r="J17">
-        <v>0.9987324989840958</v>
+        <v>1.152547</v>
       </c>
       <c r="K17">
-        <v>1.000277697363478</v>
+        <v>0.83937091</v>
       </c>
       <c r="L17">
-        <v>1.000344487491103</v>
+        <v>0.96193414</v>
       </c>
       <c r="M17">
-        <v>0.9995384932375995</v>
+        <v>1.14476407</v>
       </c>
       <c r="N17">
-        <v>0.9995384932375995</v>
+        <v>1.14476407</v>
       </c>
       <c r="O17">
-        <v>0.9994476134169018</v>
+        <v>1.14735838</v>
       </c>
       <c r="P17">
-        <v>0.9997848946128922</v>
+        <v>1.04296635</v>
       </c>
       <c r="Q17">
-        <v>0.9997848946128922</v>
+        <v>1.04296635</v>
       </c>
       <c r="R17">
-        <v>0.9999080953005386</v>
+        <v>0.9920674899999999</v>
       </c>
       <c r="S17">
-        <v>0.9999080953005386</v>
+        <v>0.9920674899999999</v>
       </c>
       <c r="T17">
-        <v>0.9999878747998427</v>
+        <v>1.020943521666666</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1664,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.001919077737855</v>
+        <v>1.179875123287671</v>
       </c>
       <c r="D18">
-        <v>0.994913561768774</v>
+        <v>0.5981552753424659</v>
       </c>
       <c r="E18">
-        <v>1.000931369232774</v>
+        <v>1.058554261643835</v>
       </c>
       <c r="F18">
-        <v>1.001919077737855</v>
+        <v>0.5981552753424659</v>
       </c>
       <c r="G18">
-        <v>1.002375139066767</v>
+        <v>1.093924756164383</v>
       </c>
       <c r="H18">
-        <v>0.9973797810481257</v>
+        <v>1.179875123287671</v>
       </c>
       <c r="I18">
-        <v>1.001219331504391</v>
+        <v>1.13878534520548</v>
       </c>
       <c r="J18">
-        <v>0.994913561768774</v>
+        <v>0.8020069293150682</v>
       </c>
       <c r="K18">
-        <v>1.001919077737855</v>
+        <v>1.179875123287671</v>
       </c>
       <c r="L18">
-        <v>1.000931369232774</v>
+        <v>1.058554261643835</v>
       </c>
       <c r="M18">
-        <v>0.9979224655007739</v>
+        <v>0.8283547684931507</v>
       </c>
       <c r="N18">
-        <v>0.9979224655007739</v>
+        <v>0.8283547684931507</v>
       </c>
       <c r="O18">
-        <v>0.9977415706832246</v>
+        <v>0.8195721554337899</v>
       </c>
       <c r="P18">
-        <v>0.999254669579801</v>
+        <v>0.9455282200913239</v>
       </c>
       <c r="Q18">
-        <v>0.999254669579801</v>
+        <v>0.9455282200913239</v>
       </c>
       <c r="R18">
-        <v>0.9999207716193146</v>
+        <v>1.004114945890411</v>
       </c>
       <c r="S18">
-        <v>0.9999207716193146</v>
+        <v>1.004114945890411</v>
       </c>
       <c r="T18">
-        <v>0.9997897100597811</v>
+        <v>0.9785502818264838</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1726,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.005521707255991</v>
+        <v>1.00954496</v>
       </c>
       <c r="D19">
-        <v>0.9874978507407578</v>
+        <v>0.8616867199999999</v>
       </c>
       <c r="E19">
-        <v>1.001859137017016</v>
+        <v>1.048866542105263</v>
       </c>
       <c r="F19">
-        <v>1.005521707255991</v>
+        <v>0.8616867199999999</v>
       </c>
       <c r="G19">
-        <v>1.004450929830387</v>
+        <v>1.037402524210526</v>
       </c>
       <c r="H19">
-        <v>0.9938180930815619</v>
+        <v>1.00954496</v>
       </c>
       <c r="I19">
-        <v>1.002926937138495</v>
+        <v>1.141524285263158</v>
       </c>
       <c r="J19">
-        <v>0.9874978507407578</v>
+        <v>0.9133194321052631</v>
       </c>
       <c r="K19">
-        <v>1.005521707255991</v>
+        <v>1.00954496</v>
       </c>
       <c r="L19">
-        <v>1.001859137017016</v>
+        <v>1.048866542105263</v>
       </c>
       <c r="M19">
-        <v>0.9946784938788868</v>
+        <v>0.9552766310526315</v>
       </c>
       <c r="N19">
-        <v>0.9946784938788868</v>
+        <v>0.9552766310526315</v>
       </c>
       <c r="O19">
-        <v>0.9943916936131117</v>
+        <v>0.9412908980701754</v>
       </c>
       <c r="P19">
-        <v>0.9982928983379216</v>
+        <v>0.9733660740350877</v>
       </c>
       <c r="Q19">
-        <v>0.9982928983379216</v>
+        <v>0.9733660740350875</v>
       </c>
       <c r="R19">
-        <v>1.000100100567439</v>
+        <v>0.9824107955263156</v>
       </c>
       <c r="S19">
-        <v>1.000100100567439</v>
+        <v>0.9824107955263156</v>
       </c>
       <c r="T19">
-        <v>0.9993457758440348</v>
+        <v>1.002057410614035</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.009542374736842</v>
+      </c>
+      <c r="D20">
+        <v>0.8616927552631577</v>
+      </c>
+      <c r="E20">
+        <v>1.048865569473684</v>
+      </c>
+      <c r="F20">
+        <v>0.8616927552631577</v>
+      </c>
+      <c r="G20">
+        <v>1.037401081052632</v>
+      </c>
+      <c r="H20">
+        <v>1.009542374736842</v>
+      </c>
+      <c r="I20">
+        <v>1.141521697368421</v>
+      </c>
+      <c r="J20">
+        <v>0.9133225657894736</v>
+      </c>
+      <c r="K20">
+        <v>1.009542374736842</v>
+      </c>
+      <c r="L20">
+        <v>1.048865569473684</v>
+      </c>
+      <c r="M20">
+        <v>0.9552791623684209</v>
+      </c>
+      <c r="N20">
+        <v>0.9552791623684209</v>
+      </c>
+      <c r="O20">
+        <v>0.9412936301754384</v>
+      </c>
+      <c r="P20">
+        <v>0.9733668998245614</v>
+      </c>
+      <c r="Q20">
+        <v>0.9733668998245614</v>
+      </c>
+      <c r="R20">
+        <v>0.9824107685526315</v>
+      </c>
+      <c r="S20">
+        <v>0.9824107685526315</v>
+      </c>
+      <c r="T20">
+        <v>1.002057673947368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.03430275305951</v>
+      </c>
+      <c r="D21">
+        <v>1.082237970709322</v>
+      </c>
+      <c r="E21">
+        <v>0.9486896285328137</v>
+      </c>
+      <c r="F21">
+        <v>1.082237970709322</v>
+      </c>
+      <c r="G21">
+        <v>0.9736497251270588</v>
+      </c>
+      <c r="H21">
+        <v>1.03430275305951</v>
+      </c>
+      <c r="I21">
+        <v>0.8459635142590431</v>
+      </c>
+      <c r="J21">
+        <v>1.065711042282012</v>
+      </c>
+      <c r="K21">
+        <v>1.03430275305951</v>
+      </c>
+      <c r="L21">
+        <v>0.9486896285328137</v>
+      </c>
+      <c r="M21">
+        <v>1.015463799621068</v>
+      </c>
+      <c r="N21">
+        <v>1.015463799621068</v>
+      </c>
+      <c r="O21">
+        <v>1.032212880508049</v>
+      </c>
+      <c r="P21">
+        <v>1.021743450767215</v>
+      </c>
+      <c r="Q21">
+        <v>1.021743450767216</v>
+      </c>
+      <c r="R21">
+        <v>1.024883276340289</v>
+      </c>
+      <c r="S21">
+        <v>1.024883276340289</v>
+      </c>
+      <c r="T21">
+        <v>0.9917591056616267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9645572990960503</v>
+      </c>
+      <c r="D22">
+        <v>1.050094095817835</v>
+      </c>
+      <c r="E22">
+        <v>1.000643624370919</v>
+      </c>
+      <c r="F22">
+        <v>1.050094095817835</v>
+      </c>
+      <c r="G22">
+        <v>0.9901228246439837</v>
+      </c>
+      <c r="H22">
+        <v>0.9645572990960503</v>
+      </c>
+      <c r="I22">
+        <v>1.009429866402673</v>
+      </c>
+      <c r="J22">
+        <v>1.018275162555036</v>
+      </c>
+      <c r="K22">
+        <v>0.9645572990960503</v>
+      </c>
+      <c r="L22">
+        <v>1.000643624370919</v>
+      </c>
+      <c r="M22">
+        <v>1.025368860094377</v>
+      </c>
+      <c r="N22">
+        <v>1.025368860094377</v>
+      </c>
+      <c r="O22">
+        <v>1.02300429424793</v>
+      </c>
+      <c r="P22">
+        <v>1.005098339761602</v>
+      </c>
+      <c r="Q22">
+        <v>1.005098339761602</v>
+      </c>
+      <c r="R22">
+        <v>0.9949630795952138</v>
+      </c>
+      <c r="S22">
+        <v>0.9949630795952138</v>
+      </c>
+      <c r="T22">
+        <v>1.005520478814416</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.034300192776148</v>
+      </c>
+      <c r="D23">
+        <v>1.082246127759765</v>
+      </c>
+      <c r="E23">
+        <v>0.9486879189360159</v>
+      </c>
+      <c r="F23">
+        <v>1.082246127759765</v>
+      </c>
+      <c r="G23">
+        <v>0.973647767142882</v>
+      </c>
+      <c r="H23">
+        <v>1.034300192776148</v>
+      </c>
+      <c r="I23">
+        <v>0.8459593346529771</v>
+      </c>
+      <c r="J23">
+        <v>1.065715200201808</v>
+      </c>
+      <c r="K23">
+        <v>1.034300192776148</v>
+      </c>
+      <c r="L23">
+        <v>0.9486879189360159</v>
+      </c>
+      <c r="M23">
+        <v>1.015467023347891</v>
+      </c>
+      <c r="N23">
+        <v>1.015467023347891</v>
+      </c>
+      <c r="O23">
+        <v>1.03221641563253</v>
+      </c>
+      <c r="P23">
+        <v>1.021744746490643</v>
+      </c>
+      <c r="Q23">
+        <v>1.021744746490643</v>
+      </c>
+      <c r="R23">
+        <v>1.024883608062019</v>
+      </c>
+      <c r="S23">
+        <v>1.024883608062019</v>
+      </c>
+      <c r="T23">
+        <v>0.9917594235782662</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9645569955738693</v>
+      </c>
+      <c r="D24">
+        <v>1.050095771542162</v>
+      </c>
+      <c r="E24">
+        <v>1.000643091019575</v>
+      </c>
+      <c r="F24">
+        <v>1.050095771542162</v>
+      </c>
+      <c r="G24">
+        <v>0.9901223627025181</v>
+      </c>
+      <c r="H24">
+        <v>0.9645569955738693</v>
+      </c>
+      <c r="I24">
+        <v>1.009428130733858</v>
+      </c>
+      <c r="J24">
+        <v>1.01827627897359</v>
+      </c>
+      <c r="K24">
+        <v>0.9645569955738693</v>
+      </c>
+      <c r="L24">
+        <v>1.000643091019575</v>
+      </c>
+      <c r="M24">
+        <v>1.025369431280869</v>
+      </c>
+      <c r="N24">
+        <v>1.025369431280869</v>
+      </c>
+      <c r="O24">
+        <v>1.023005047178442</v>
+      </c>
+      <c r="P24">
+        <v>1.005098619378535</v>
+      </c>
+      <c r="Q24">
+        <v>1.005098619378536</v>
+      </c>
+      <c r="R24">
+        <v>0.9949632134273689</v>
+      </c>
+      <c r="S24">
+        <v>0.9949632134273689</v>
+      </c>
+      <c r="T24">
+        <v>1.005520438424262</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.034296363628243</v>
+      </c>
+      <c r="D25">
+        <v>1.082255510637703</v>
+      </c>
+      <c r="E25">
+        <v>0.9486863582500897</v>
+      </c>
+      <c r="F25">
+        <v>1.082255510637703</v>
+      </c>
+      <c r="G25">
+        <v>0.97364555173597</v>
+      </c>
+      <c r="H25">
+        <v>1.034296363628243</v>
+      </c>
+      <c r="I25">
+        <v>0.8459553945559271</v>
+      </c>
+      <c r="J25">
+        <v>1.065719953248985</v>
+      </c>
+      <c r="K25">
+        <v>1.034296363628243</v>
+      </c>
+      <c r="L25">
+        <v>0.9486863582500897</v>
+      </c>
+      <c r="M25">
+        <v>1.015470934443896</v>
+      </c>
+      <c r="N25">
+        <v>1.015470934443896</v>
+      </c>
+      <c r="O25">
+        <v>1.032220607378926</v>
+      </c>
+      <c r="P25">
+        <v>1.021746077505345</v>
+      </c>
+      <c r="Q25">
+        <v>1.021746077505345</v>
+      </c>
+      <c r="R25">
+        <v>1.02488364903607</v>
+      </c>
+      <c r="S25">
+        <v>1.02488364903607</v>
+      </c>
+      <c r="T25">
+        <v>0.9917598553428197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9645571982617638</v>
+      </c>
+      <c r="D26">
+        <v>1.050097797515326</v>
+      </c>
+      <c r="E26">
+        <v>1.000642246595599</v>
+      </c>
+      <c r="F26">
+        <v>1.050097797515326</v>
+      </c>
+      <c r="G26">
+        <v>0.9901218207406068</v>
+      </c>
+      <c r="H26">
+        <v>0.9645571982617638</v>
+      </c>
+      <c r="I26">
+        <v>1.009425922269827</v>
+      </c>
+      <c r="J26">
+        <v>1.018277486304808</v>
+      </c>
+      <c r="K26">
+        <v>0.9645571982617638</v>
+      </c>
+      <c r="L26">
+        <v>1.000642246595599</v>
+      </c>
+      <c r="M26">
+        <v>1.025370022055463</v>
+      </c>
+      <c r="N26">
+        <v>1.025370022055463</v>
+      </c>
+      <c r="O26">
+        <v>1.023005843471911</v>
+      </c>
+      <c r="P26">
+        <v>1.005099080790896</v>
+      </c>
+      <c r="Q26">
+        <v>1.005099080790896</v>
+      </c>
+      <c r="R26">
+        <v>0.9949636101586132</v>
+      </c>
+      <c r="S26">
+        <v>0.9949636101586132</v>
+      </c>
+      <c r="T26">
+        <v>1.005520411947989</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.018200340446461</v>
+      </c>
+      <c r="D27">
+        <v>0.9354260507490897</v>
+      </c>
+      <c r="E27">
+        <v>1.013298672775842</v>
+      </c>
+      <c r="F27">
+        <v>0.9354260507490897</v>
+      </c>
+      <c r="G27">
+        <v>1.014727732074468</v>
+      </c>
+      <c r="H27">
+        <v>1.018200340446461</v>
+      </c>
+      <c r="I27">
+        <v>1.029719640670445</v>
+      </c>
+      <c r="J27">
+        <v>0.9695990282603252</v>
+      </c>
+      <c r="K27">
+        <v>1.018200340446461</v>
+      </c>
+      <c r="L27">
+        <v>1.013298672775842</v>
+      </c>
+      <c r="M27">
+        <v>0.9743623617624657</v>
+      </c>
+      <c r="N27">
+        <v>0.9743623617624657</v>
+      </c>
+      <c r="O27">
+        <v>0.9727745839284189</v>
+      </c>
+      <c r="P27">
+        <v>0.9889750213237977</v>
+      </c>
+      <c r="Q27">
+        <v>0.9889750213237977</v>
+      </c>
+      <c r="R27">
+        <v>0.9962813511044636</v>
+      </c>
+      <c r="S27">
+        <v>0.9962813511044636</v>
+      </c>
+      <c r="T27">
+        <v>0.996828577496105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.016673656663996</v>
+      </c>
+      <c r="D28">
+        <v>0.9984480808041502</v>
+      </c>
+      <c r="E28">
+        <v>0.9917315740989019</v>
+      </c>
+      <c r="F28">
+        <v>0.9984480808041502</v>
+      </c>
+      <c r="G28">
+        <v>0.9990033134580446</v>
+      </c>
+      <c r="H28">
+        <v>1.016673656663996</v>
+      </c>
+      <c r="I28">
+        <v>0.9722584397291056</v>
+      </c>
+      <c r="J28">
+        <v>1.004481490387057</v>
+      </c>
+      <c r="K28">
+        <v>1.016673656663996</v>
+      </c>
+      <c r="L28">
+        <v>0.9917315740989019</v>
+      </c>
+      <c r="M28">
+        <v>0.9950898274515261</v>
+      </c>
+      <c r="N28">
+        <v>0.9950898274515261</v>
+      </c>
+      <c r="O28">
+        <v>0.9982203817633698</v>
+      </c>
+      <c r="P28">
+        <v>1.002284437189016</v>
+      </c>
+      <c r="Q28">
+        <v>1.002284437189016</v>
+      </c>
+      <c r="R28">
+        <v>1.005881742057761</v>
+      </c>
+      <c r="S28">
+        <v>1.005881742057761</v>
+      </c>
+      <c r="T28">
+        <v>0.9970994258568759</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9801045263701426</v>
+      </c>
+      <c r="D29">
+        <v>1.16375786566891</v>
+      </c>
+      <c r="E29">
+        <v>0.9472615457212029</v>
+      </c>
+      <c r="F29">
+        <v>1.16375786566891</v>
+      </c>
+      <c r="G29">
+        <v>0.95683676519313</v>
+      </c>
+      <c r="H29">
+        <v>0.9801045263701426</v>
+      </c>
+      <c r="I29">
+        <v>0.8499275248587839</v>
+      </c>
+      <c r="J29">
+        <v>1.098590807217652</v>
+      </c>
+      <c r="K29">
+        <v>0.9801045263701426</v>
+      </c>
+      <c r="L29">
+        <v>0.9472615457212029</v>
+      </c>
+      <c r="M29">
+        <v>1.055509705695057</v>
+      </c>
+      <c r="N29">
+        <v>1.055509705695057</v>
+      </c>
+      <c r="O29">
+        <v>1.069870072869255</v>
+      </c>
+      <c r="P29">
+        <v>1.030374645920085</v>
+      </c>
+      <c r="Q29">
+        <v>1.030374645920085</v>
+      </c>
+      <c r="R29">
+        <v>1.0178071160326</v>
+      </c>
+      <c r="S29">
+        <v>1.0178071160326</v>
+      </c>
+      <c r="T29">
+        <v>0.9994131725049703</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GammaFiber2F-HW25.xlsx
+++ b/JupyterNotebooks/AvgHW/GammaFiber2F-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.019717677458119</v>
+        <v>1.006014271474516</v>
       </c>
       <c r="D4">
-        <v>0.9458485832519392</v>
+        <v>0.8845528534085375</v>
       </c>
       <c r="E4">
-        <v>1.010240654896297</v>
+        <v>1.041819536877271</v>
       </c>
       <c r="F4">
-        <v>0.9458485832519392</v>
+        <v>0.8845528534085375</v>
       </c>
       <c r="G4">
-        <v>1.013003637375852</v>
+        <v>1.031380684084285</v>
       </c>
       <c r="H4">
-        <v>1.019717677458119</v>
+        <v>1.006014271474516</v>
       </c>
       <c r="I4">
-        <v>1.025978783484889</v>
+        <v>1.121135329344442</v>
       </c>
       <c r="J4">
-        <v>0.972070603395796</v>
+        <v>0.9271208647971515</v>
       </c>
       <c r="K4">
-        <v>1.019717677458119</v>
+        <v>1.006014271474516</v>
       </c>
       <c r="L4">
-        <v>1.010240654896297</v>
+        <v>1.041819536877271</v>
       </c>
       <c r="M4">
-        <v>0.9780446190741183</v>
+        <v>0.9631861951429044</v>
       </c>
       <c r="N4">
-        <v>0.9780446190741183</v>
+        <v>0.9631861951429044</v>
       </c>
       <c r="O4">
-        <v>0.9760532805146775</v>
+        <v>0.9511644183609868</v>
       </c>
       <c r="P4">
-        <v>0.9919356385354519</v>
+        <v>0.9774622205867748</v>
       </c>
       <c r="Q4">
-        <v>0.9919356385354519</v>
+        <v>0.9774622205867747</v>
       </c>
       <c r="R4">
-        <v>0.9988811482661186</v>
+        <v>0.9846002333087099</v>
       </c>
       <c r="S4">
-        <v>0.9988811482661186</v>
+        <v>0.9846002333087099</v>
       </c>
       <c r="T4">
-        <v>0.9978099899771489</v>
+        <v>1.002003923331034</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.009509716570607</v>
+        <v>1.008745944250528</v>
       </c>
       <c r="D5">
-        <v>0.861248113004321</v>
+        <v>0.9171184436391582</v>
       </c>
       <c r="E5">
-        <v>1.049058522435158</v>
+        <v>1.027508283472786</v>
       </c>
       <c r="F5">
-        <v>0.861248113004321</v>
+        <v>0.9171184436391582</v>
       </c>
       <c r="G5">
-        <v>1.037528259394814</v>
+        <v>1.022038211484679</v>
       </c>
       <c r="H5">
-        <v>1.009509716570607</v>
+        <v>1.008745944250528</v>
       </c>
       <c r="I5">
-        <v>1.142104114906337</v>
+        <v>1.078010048043325</v>
       </c>
       <c r="J5">
-        <v>0.9130168078530274</v>
+        <v>0.9495934548891013</v>
       </c>
       <c r="K5">
-        <v>1.009509716570607</v>
+        <v>1.008745944250528</v>
       </c>
       <c r="L5">
-        <v>1.049058522435158</v>
+        <v>1.027508283472786</v>
       </c>
       <c r="M5">
-        <v>0.9551533177197397</v>
+        <v>0.9723133635559721</v>
       </c>
       <c r="N5">
-        <v>0.9551533177197397</v>
+        <v>0.9723133635559721</v>
       </c>
       <c r="O5">
-        <v>0.9411078144308357</v>
+        <v>0.9647400606670152</v>
       </c>
       <c r="P5">
-        <v>0.9732721173366956</v>
+        <v>0.9844575571208241</v>
       </c>
       <c r="Q5">
-        <v>0.9732721173366956</v>
+        <v>0.9844575571208241</v>
       </c>
       <c r="R5">
-        <v>0.9823315171451735</v>
+        <v>0.9905296539032501</v>
       </c>
       <c r="S5">
-        <v>0.9823315171451735</v>
+        <v>0.9905296539032501</v>
       </c>
       <c r="T5">
-        <v>1.002077589027378</v>
+        <v>1.00050239762993</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9839861819070896</v>
+        <v>1.019717677458119</v>
       </c>
       <c r="D6">
-        <v>0.5680991800602656</v>
+        <v>0.9458485832519392</v>
       </c>
       <c r="E6">
-        <v>1.178460010930626</v>
+        <v>1.010240654896297</v>
       </c>
       <c r="F6">
-        <v>0.5680991800602656</v>
+        <v>0.9458485832519392</v>
       </c>
       <c r="G6">
-        <v>1.121762130213902</v>
+        <v>1.013003637375852</v>
       </c>
       <c r="H6">
-        <v>0.9839861819070896</v>
+        <v>1.019717677458119</v>
       </c>
       <c r="I6">
-        <v>1.533298290830531</v>
+        <v>1.025978783484889</v>
       </c>
       <c r="J6">
-        <v>0.7100074380130296</v>
+        <v>0.972070603395796</v>
       </c>
       <c r="K6">
-        <v>0.9839861819070896</v>
+        <v>1.019717677458119</v>
       </c>
       <c r="L6">
-        <v>1.178460010930626</v>
+        <v>1.010240654896297</v>
       </c>
       <c r="M6">
-        <v>0.8732795954954455</v>
+        <v>0.9780446190741183</v>
       </c>
       <c r="N6">
-        <v>0.8732795954954455</v>
+        <v>0.9780446190741183</v>
       </c>
       <c r="O6">
-        <v>0.8188555430013068</v>
+        <v>0.9760532805146775</v>
       </c>
       <c r="P6">
-        <v>0.9101817909659936</v>
+        <v>0.9919356385354519</v>
       </c>
       <c r="Q6">
-        <v>0.9101817909659936</v>
+        <v>0.9919356385354519</v>
       </c>
       <c r="R6">
-        <v>0.9286328887012676</v>
+        <v>0.9988811482661186</v>
       </c>
       <c r="S6">
-        <v>0.9286328887012676</v>
+        <v>0.9988811482661186</v>
       </c>
       <c r="T6">
-        <v>1.015935538659241</v>
+        <v>0.9978099899771489</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.007965985913276</v>
+        <v>1.009509716570607</v>
       </c>
       <c r="D7">
-        <v>0.9812759867702117</v>
+        <v>0.861248113004321</v>
       </c>
       <c r="E7">
-        <v>1.002947219214197</v>
+        <v>1.049058522435158</v>
       </c>
       <c r="F7">
-        <v>0.9812759867702117</v>
+        <v>0.861248113004321</v>
       </c>
       <c r="G7">
-        <v>1.004410415395896</v>
+        <v>1.037528259394814</v>
       </c>
       <c r="H7">
-        <v>1.007965985913276</v>
+        <v>1.009509716570607</v>
       </c>
       <c r="I7">
-        <v>1.007133604462379</v>
+        <v>1.142104114906337</v>
       </c>
       <c r="J7">
-        <v>0.9906563941014248</v>
+        <v>0.9130168078530274</v>
       </c>
       <c r="K7">
-        <v>1.007965985913276</v>
+        <v>1.009509716570607</v>
       </c>
       <c r="L7">
-        <v>1.002947219214197</v>
+        <v>1.049058522435158</v>
       </c>
       <c r="M7">
-        <v>0.9921116029922045</v>
+        <v>0.9551533177197397</v>
       </c>
       <c r="N7">
-        <v>0.9921116029922045</v>
+        <v>0.9551533177197397</v>
       </c>
       <c r="O7">
-        <v>0.9916265333619446</v>
+        <v>0.9411078144308357</v>
       </c>
       <c r="P7">
-        <v>0.9973963972992282</v>
+        <v>0.9732721173366956</v>
       </c>
       <c r="Q7">
-        <v>0.9973963972992282</v>
+        <v>0.9732721173366956</v>
       </c>
       <c r="R7">
-        <v>1.00003879445274</v>
+        <v>0.9823315171451735</v>
       </c>
       <c r="S7">
-        <v>1.00003879445274</v>
+        <v>0.9823315171451735</v>
       </c>
       <c r="T7">
-        <v>0.9990649343095641</v>
+        <v>1.002077589027378</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000277697363478</v>
+        <v>0.9839861819070896</v>
       </c>
       <c r="D8">
-        <v>0.9987324989840958</v>
+        <v>0.5680991800602656</v>
       </c>
       <c r="E8">
-        <v>1.000344487491103</v>
+        <v>1.178460010930626</v>
       </c>
       <c r="F8">
-        <v>0.9987324989840958</v>
+        <v>0.5680991800602656</v>
       </c>
       <c r="G8">
-        <v>1.000325014699578</v>
+        <v>1.121762130213902</v>
       </c>
       <c r="H8">
-        <v>1.000277697363478</v>
+        <v>0.9839861819070896</v>
       </c>
       <c r="I8">
-        <v>1.000981696485296</v>
+        <v>1.533298290830531</v>
       </c>
       <c r="J8">
-        <v>0.9992658537755064</v>
+        <v>0.7100074380130296</v>
       </c>
       <c r="K8">
-        <v>1.000277697363478</v>
+        <v>0.9839861819070896</v>
       </c>
       <c r="L8">
-        <v>1.000344487491103</v>
+        <v>1.178460010930626</v>
       </c>
       <c r="M8">
-        <v>0.9995384932375995</v>
+        <v>0.8732795954954455</v>
       </c>
       <c r="N8">
-        <v>0.9995384932375995</v>
+        <v>0.8732795954954455</v>
       </c>
       <c r="O8">
-        <v>0.9994476134169018</v>
+        <v>0.8188555430013068</v>
       </c>
       <c r="P8">
-        <v>0.9997848946128922</v>
+        <v>0.9101817909659936</v>
       </c>
       <c r="Q8">
-        <v>0.9997848946128922</v>
+        <v>0.9101817909659936</v>
       </c>
       <c r="R8">
-        <v>0.9999080953005386</v>
+        <v>0.9286328887012676</v>
       </c>
       <c r="S8">
-        <v>0.9999080953005386</v>
+        <v>0.9286328887012676</v>
       </c>
       <c r="T8">
-        <v>0.9999878747998427</v>
+        <v>1.015935538659241</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.014331184765702</v>
+        <v>1.007965985913276</v>
       </c>
       <c r="D9">
-        <v>0.9668497603831318</v>
+        <v>0.9812759867702117</v>
       </c>
       <c r="E9">
-        <v>1.00511742868782</v>
+        <v>1.002947219214197</v>
       </c>
       <c r="F9">
-        <v>0.9668497603831318</v>
+        <v>0.9812759867702117</v>
       </c>
       <c r="G9">
-        <v>1.007803652727414</v>
+        <v>1.004410415395896</v>
       </c>
       <c r="H9">
-        <v>1.014331184765702</v>
+        <v>1.007965985913276</v>
       </c>
       <c r="I9">
-        <v>1.012411353958875</v>
+        <v>1.007133604462379</v>
       </c>
       <c r="J9">
-        <v>0.9834636640150761</v>
+        <v>0.9906563941014248</v>
       </c>
       <c r="K9">
-        <v>1.014331184765702</v>
+        <v>1.007965985913276</v>
       </c>
       <c r="L9">
-        <v>1.00511742868782</v>
+        <v>1.002947219214197</v>
       </c>
       <c r="M9">
-        <v>0.9859835945354758</v>
+        <v>0.9921116029922045</v>
       </c>
       <c r="N9">
-        <v>0.9859835945354758</v>
+        <v>0.9921116029922045</v>
       </c>
       <c r="O9">
-        <v>0.9851436176953426</v>
+        <v>0.9916265333619446</v>
       </c>
       <c r="P9">
-        <v>0.9954327912788846</v>
+        <v>0.9973963972992282</v>
       </c>
       <c r="Q9">
-        <v>0.9954327912788846</v>
+        <v>0.9973963972992282</v>
       </c>
       <c r="R9">
-        <v>1.000157389650589</v>
+        <v>1.00003879445274</v>
       </c>
       <c r="S9">
-        <v>1.000157389650589</v>
+        <v>1.00003879445274</v>
       </c>
       <c r="T9">
-        <v>0.9983295074230032</v>
+        <v>0.9990649343095641</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9814807406383642</v>
+        <v>1.000277697363478</v>
       </c>
       <c r="D10">
-        <v>0.5637211484596454</v>
+        <v>0.9987324989840958</v>
       </c>
       <c r="E10">
-        <v>1.181725399139941</v>
+        <v>1.000344487491103</v>
       </c>
       <c r="F10">
-        <v>0.5637211484596454</v>
+        <v>0.9987324989840958</v>
       </c>
       <c r="G10">
-        <v>1.123345061054826</v>
+        <v>1.000325014699578</v>
       </c>
       <c r="H10">
-        <v>0.9814807406383642</v>
+        <v>1.000277697363478</v>
       </c>
       <c r="I10">
-        <v>1.544158019351451</v>
+        <v>1.000981696485296</v>
       </c>
       <c r="J10">
-        <v>0.7057313872392016</v>
+        <v>0.9992658537755064</v>
       </c>
       <c r="K10">
-        <v>0.9814807406383642</v>
+        <v>1.000277697363478</v>
       </c>
       <c r="L10">
-        <v>1.181725399139941</v>
+        <v>1.000344487491103</v>
       </c>
       <c r="M10">
-        <v>0.872723273799793</v>
+        <v>0.9995384932375995</v>
       </c>
       <c r="N10">
-        <v>0.872723273799793</v>
+        <v>0.9995384932375995</v>
       </c>
       <c r="O10">
-        <v>0.8170593116129292</v>
+        <v>0.9994476134169018</v>
       </c>
       <c r="P10">
-        <v>0.9089757627459835</v>
+        <v>0.9997848946128922</v>
       </c>
       <c r="Q10">
-        <v>0.9089757627459832</v>
+        <v>0.9997848946128922</v>
       </c>
       <c r="R10">
-        <v>0.9271020072190785</v>
+        <v>0.9999080953005386</v>
       </c>
       <c r="S10">
-        <v>0.9271020072190785</v>
+        <v>0.9999080953005386</v>
       </c>
       <c r="T10">
-        <v>1.016693625980571</v>
+        <v>0.9999878747998427</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.023596787489033</v>
+        <v>1.014331184765702</v>
       </c>
       <c r="D11">
-        <v>0.9462171026569168</v>
+        <v>0.9668497603831318</v>
       </c>
       <c r="E11">
-        <v>1.008020201890824</v>
+        <v>1.00511742868782</v>
       </c>
       <c r="F11">
-        <v>0.9462171026569168</v>
+        <v>0.9668497603831318</v>
       </c>
       <c r="G11">
-        <v>1.012561481869487</v>
+        <v>1.007803652727414</v>
       </c>
       <c r="H11">
-        <v>1.023596787489033</v>
+        <v>1.014331184765702</v>
       </c>
       <c r="I11">
-        <v>1.019227021969723</v>
+        <v>1.012411353958875</v>
       </c>
       <c r="J11">
-        <v>0.9734767741658642</v>
+        <v>0.9834636640150761</v>
       </c>
       <c r="K11">
-        <v>1.023596787489033</v>
+        <v>1.014331184765702</v>
       </c>
       <c r="L11">
-        <v>1.008020201890824</v>
+        <v>1.00511742868782</v>
       </c>
       <c r="M11">
-        <v>0.9771186522738702</v>
+        <v>0.9859835945354758</v>
       </c>
       <c r="N11">
-        <v>0.9771186522738702</v>
+        <v>0.9859835945354758</v>
       </c>
       <c r="O11">
-        <v>0.9759046929045349</v>
+        <v>0.9851436176953426</v>
       </c>
       <c r="P11">
-        <v>0.9926113640122578</v>
+        <v>0.9954327912788846</v>
       </c>
       <c r="Q11">
-        <v>0.9926113640122578</v>
+        <v>0.9954327912788846</v>
       </c>
       <c r="R11">
-        <v>1.000357719881452</v>
+        <v>1.000157389650589</v>
       </c>
       <c r="S11">
-        <v>1.000357719881452</v>
+        <v>1.000157389650589</v>
       </c>
       <c r="T11">
-        <v>0.997183228340308</v>
+        <v>0.9983295074230032</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9933610385789481</v>
+        <v>0.9814807406383642</v>
       </c>
       <c r="D12">
-        <v>0.8697921374105255</v>
+        <v>0.5637211484596454</v>
       </c>
       <c r="E12">
-        <v>1.054998271705262</v>
+        <v>1.181725399139941</v>
       </c>
       <c r="F12">
-        <v>0.8697921374105255</v>
+        <v>0.5637211484596454</v>
       </c>
       <c r="G12">
-        <v>1.037028235536844</v>
+        <v>1.123345061054826</v>
       </c>
       <c r="H12">
-        <v>0.9933610385789481</v>
+        <v>0.9814807406383642</v>
       </c>
       <c r="I12">
-        <v>1.164200982557895</v>
+        <v>1.544158019351451</v>
       </c>
       <c r="J12">
-        <v>0.9116372990526325</v>
+        <v>0.7057313872392016</v>
       </c>
       <c r="K12">
-        <v>0.9933610385789481</v>
+        <v>0.9814807406383642</v>
       </c>
       <c r="L12">
-        <v>1.054998271705262</v>
+        <v>1.181725399139941</v>
       </c>
       <c r="M12">
-        <v>0.9623952045578937</v>
+        <v>0.872723273799793</v>
       </c>
       <c r="N12">
-        <v>0.9623952045578937</v>
+        <v>0.872723273799793</v>
       </c>
       <c r="O12">
-        <v>0.9454759027228067</v>
+        <v>0.8170593116129292</v>
       </c>
       <c r="P12">
-        <v>0.9727171492315785</v>
+        <v>0.9089757627459835</v>
       </c>
       <c r="Q12">
-        <v>0.9727171492315785</v>
+        <v>0.9089757627459832</v>
       </c>
       <c r="R12">
-        <v>0.9778781215684209</v>
+        <v>0.9271020072190785</v>
       </c>
       <c r="S12">
-        <v>0.9778781215684209</v>
+        <v>0.9271020072190785</v>
       </c>
       <c r="T12">
-        <v>1.005169660807018</v>
+        <v>1.016693625980571</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9793319188757424</v>
+        <v>1.023596787489033</v>
       </c>
       <c r="D13">
-        <v>1.104888321497278</v>
+        <v>0.9462171026569168</v>
       </c>
       <c r="E13">
-        <v>0.9710914623640606</v>
+        <v>1.008020201890824</v>
       </c>
       <c r="F13">
-        <v>1.104888321497278</v>
+        <v>0.9462171026569168</v>
       </c>
       <c r="G13">
-        <v>0.9734939278752489</v>
+        <v>1.012561481869487</v>
       </c>
       <c r="H13">
-        <v>0.9793319188757424</v>
+        <v>1.023596787489033</v>
       </c>
       <c r="I13">
-        <v>0.9227792040588334</v>
+        <v>1.019227021969723</v>
       </c>
       <c r="J13">
-        <v>1.058589956203818</v>
+        <v>0.9734767741658642</v>
       </c>
       <c r="K13">
-        <v>0.9793319188757424</v>
+        <v>1.023596787489033</v>
       </c>
       <c r="L13">
-        <v>0.9710914623640606</v>
+        <v>1.008020201890824</v>
       </c>
       <c r="M13">
-        <v>1.037989891930669</v>
+        <v>0.9771186522738702</v>
       </c>
       <c r="N13">
-        <v>1.037989891930669</v>
+        <v>0.9771186522738702</v>
       </c>
       <c r="O13">
-        <v>1.044856580021719</v>
+        <v>0.9759046929045349</v>
       </c>
       <c r="P13">
-        <v>1.018437234245694</v>
+        <v>0.9926113640122578</v>
       </c>
       <c r="Q13">
-        <v>1.018437234245694</v>
+        <v>0.9926113640122578</v>
       </c>
       <c r="R13">
-        <v>1.008660905403206</v>
+        <v>1.000357719881452</v>
       </c>
       <c r="S13">
-        <v>1.008660905403206</v>
+        <v>1.000357719881452</v>
       </c>
       <c r="T13">
-        <v>1.001695798479163</v>
+        <v>0.997183228340308</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9618347199999993</v>
+        <v>0.9933610385789481</v>
       </c>
       <c r="D14">
-        <v>0.2502035199999997</v>
+        <v>0.8697921374105255</v>
       </c>
       <c r="E14">
-        <v>1.315735799999999</v>
+        <v>1.054998271705262</v>
       </c>
       <c r="F14">
-        <v>0.2502035199999997</v>
+        <v>0.8697921374105255</v>
       </c>
       <c r="G14">
-        <v>1.212557700000001</v>
+        <v>1.037028235536844</v>
       </c>
       <c r="H14">
-        <v>0.9618347199999993</v>
+        <v>0.9933610385789481</v>
       </c>
       <c r="I14">
-        <v>1.947381500000003</v>
+        <v>1.164200982557895</v>
       </c>
       <c r="J14">
-        <v>0.4918962299999994</v>
+        <v>0.9116372990526325</v>
       </c>
       <c r="K14">
-        <v>0.9618347199999993</v>
+        <v>0.9933610385789481</v>
       </c>
       <c r="L14">
-        <v>1.315735799999999</v>
+        <v>1.054998271705262</v>
       </c>
       <c r="M14">
-        <v>0.7829696599999996</v>
+        <v>0.9623952045578937</v>
       </c>
       <c r="N14">
-        <v>0.7829696599999996</v>
+        <v>0.9623952045578937</v>
       </c>
       <c r="O14">
-        <v>0.6859451833333328</v>
+        <v>0.9454759027228067</v>
       </c>
       <c r="P14">
-        <v>0.8425913466666661</v>
+        <v>0.9727171492315785</v>
       </c>
       <c r="Q14">
-        <v>0.8425913466666661</v>
+        <v>0.9727171492315785</v>
       </c>
       <c r="R14">
-        <v>0.8724021899999994</v>
+        <v>0.9778781215684209</v>
       </c>
       <c r="S14">
-        <v>0.8724021899999994</v>
+        <v>0.9778781215684209</v>
       </c>
       <c r="T14">
-        <v>1.029934911666667</v>
+        <v>1.005169660807018</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.1798756</v>
+        <v>0.9793319188757424</v>
       </c>
       <c r="D15">
-        <v>0.5981506599999999</v>
+        <v>1.104888321497278</v>
       </c>
       <c r="E15">
-        <v>1.0585559</v>
+        <v>0.9710914623640606</v>
       </c>
       <c r="F15">
-        <v>0.5981506599999999</v>
+        <v>1.104888321497278</v>
       </c>
       <c r="G15">
-        <v>1.093926</v>
+        <v>0.9734939278752489</v>
       </c>
       <c r="H15">
-        <v>1.1798756</v>
+        <v>0.9793319188757424</v>
       </c>
       <c r="I15">
-        <v>1.1387904</v>
+        <v>0.9227792040588334</v>
       </c>
       <c r="J15">
-        <v>0.80200388</v>
+        <v>1.058589956203818</v>
       </c>
       <c r="K15">
-        <v>1.1798756</v>
+        <v>0.9793319188757424</v>
       </c>
       <c r="L15">
-        <v>1.0585559</v>
+        <v>0.9710914623640606</v>
       </c>
       <c r="M15">
-        <v>0.82835328</v>
+        <v>1.037989891930669</v>
       </c>
       <c r="N15">
-        <v>0.82835328</v>
+        <v>1.037989891930669</v>
       </c>
       <c r="O15">
-        <v>0.8195701466666666</v>
+        <v>1.044856580021719</v>
       </c>
       <c r="P15">
-        <v>0.9455273866666666</v>
+        <v>1.018437234245694</v>
       </c>
       <c r="Q15">
-        <v>0.9455273866666666</v>
+        <v>1.018437234245694</v>
       </c>
       <c r="R15">
-        <v>1.00411444</v>
+        <v>1.008660905403206</v>
       </c>
       <c r="S15">
-        <v>1.00411444</v>
+        <v>1.008660905403206</v>
       </c>
       <c r="T15">
-        <v>0.9785504066666665</v>
+        <v>1.001695798479163</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.1798742</v>
+        <v>0.9618347199999993</v>
       </c>
       <c r="D16">
-        <v>0.5981647</v>
+        <v>0.2502035199999997</v>
       </c>
       <c r="E16">
-        <v>1.0585509</v>
+        <v>1.315735799999999</v>
       </c>
       <c r="F16">
-        <v>0.5981647</v>
+        <v>0.2502035199999997</v>
       </c>
       <c r="G16">
-        <v>1.0939222</v>
+        <v>1.212557700000001</v>
       </c>
       <c r="H16">
-        <v>1.1798742</v>
+        <v>0.9618347199999993</v>
       </c>
       <c r="I16">
-        <v>1.1387751</v>
+        <v>1.947381500000003</v>
       </c>
       <c r="J16">
-        <v>0.80201316</v>
+        <v>0.4918962299999994</v>
       </c>
       <c r="K16">
-        <v>1.1798742</v>
+        <v>0.9618347199999993</v>
       </c>
       <c r="L16">
-        <v>1.0585509</v>
+        <v>1.315735799999999</v>
       </c>
       <c r="M16">
-        <v>0.8283578</v>
+        <v>0.7829696599999996</v>
       </c>
       <c r="N16">
-        <v>0.8283578</v>
+        <v>0.7829696599999996</v>
       </c>
       <c r="O16">
-        <v>0.8195762533333334</v>
+        <v>0.6859451833333328</v>
       </c>
       <c r="P16">
-        <v>0.9455299333333334</v>
+        <v>0.8425913466666661</v>
       </c>
       <c r="Q16">
-        <v>0.9455299333333332</v>
+        <v>0.8425913466666661</v>
       </c>
       <c r="R16">
-        <v>1.004116</v>
+        <v>0.8724021899999994</v>
       </c>
       <c r="S16">
-        <v>1.004116</v>
+        <v>0.8724021899999994</v>
       </c>
       <c r="T16">
-        <v>0.9785500433333332</v>
+        <v>1.029934911666667</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.83937091</v>
+        <v>1.1798756</v>
       </c>
       <c r="D17">
-        <v>1.327594</v>
+        <v>0.5981506599999999</v>
       </c>
       <c r="E17">
-        <v>0.96193414</v>
+        <v>1.0585559</v>
       </c>
       <c r="F17">
-        <v>1.327594</v>
+        <v>0.5981506599999999</v>
       </c>
       <c r="G17">
-        <v>0.9262014200000001</v>
+        <v>1.093926</v>
       </c>
       <c r="H17">
-        <v>0.83937091</v>
+        <v>1.1798756</v>
       </c>
       <c r="I17">
-        <v>0.9180136600000001</v>
+        <v>1.1387904</v>
       </c>
       <c r="J17">
-        <v>1.152547</v>
+        <v>0.80200388</v>
       </c>
       <c r="K17">
-        <v>0.83937091</v>
+        <v>1.1798756</v>
       </c>
       <c r="L17">
-        <v>0.96193414</v>
+        <v>1.0585559</v>
       </c>
       <c r="M17">
-        <v>1.14476407</v>
+        <v>0.82835328</v>
       </c>
       <c r="N17">
-        <v>1.14476407</v>
+        <v>0.82835328</v>
       </c>
       <c r="O17">
-        <v>1.14735838</v>
+        <v>0.8195701466666666</v>
       </c>
       <c r="P17">
-        <v>1.04296635</v>
+        <v>0.9455273866666666</v>
       </c>
       <c r="Q17">
-        <v>1.04296635</v>
+        <v>0.9455273866666666</v>
       </c>
       <c r="R17">
-        <v>0.9920674899999999</v>
+        <v>1.00411444</v>
       </c>
       <c r="S17">
-        <v>0.9920674899999999</v>
+        <v>1.00411444</v>
       </c>
       <c r="T17">
-        <v>1.020943521666666</v>
+        <v>0.9785504066666665</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.179875123287671</v>
+        <v>1.1798742</v>
       </c>
       <c r="D18">
-        <v>0.5981552753424659</v>
+        <v>0.5981647</v>
       </c>
       <c r="E18">
-        <v>1.058554261643835</v>
+        <v>1.0585509</v>
       </c>
       <c r="F18">
-        <v>0.5981552753424659</v>
+        <v>0.5981647</v>
       </c>
       <c r="G18">
-        <v>1.093924756164383</v>
+        <v>1.0939222</v>
       </c>
       <c r="H18">
-        <v>1.179875123287671</v>
+        <v>1.1798742</v>
       </c>
       <c r="I18">
-        <v>1.13878534520548</v>
+        <v>1.1387751</v>
       </c>
       <c r="J18">
-        <v>0.8020069293150682</v>
+        <v>0.80201316</v>
       </c>
       <c r="K18">
-        <v>1.179875123287671</v>
+        <v>1.1798742</v>
       </c>
       <c r="L18">
-        <v>1.058554261643835</v>
+        <v>1.0585509</v>
       </c>
       <c r="M18">
-        <v>0.8283547684931507</v>
+        <v>0.8283578</v>
       </c>
       <c r="N18">
-        <v>0.8283547684931507</v>
+        <v>0.8283578</v>
       </c>
       <c r="O18">
-        <v>0.8195721554337899</v>
+        <v>0.8195762533333334</v>
       </c>
       <c r="P18">
-        <v>0.9455282200913239</v>
+        <v>0.9455299333333334</v>
       </c>
       <c r="Q18">
-        <v>0.9455282200913239</v>
+        <v>0.9455299333333332</v>
       </c>
       <c r="R18">
-        <v>1.004114945890411</v>
+        <v>1.004116</v>
       </c>
       <c r="S18">
-        <v>1.004114945890411</v>
+        <v>1.004116</v>
       </c>
       <c r="T18">
-        <v>0.9785502818264838</v>
+        <v>0.9785500433333332</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.00954496</v>
+        <v>0.83937091</v>
       </c>
       <c r="D19">
-        <v>0.8616867199999999</v>
+        <v>1.327594</v>
       </c>
       <c r="E19">
-        <v>1.048866542105263</v>
+        <v>0.96193414</v>
       </c>
       <c r="F19">
-        <v>0.8616867199999999</v>
+        <v>1.327594</v>
       </c>
       <c r="G19">
-        <v>1.037402524210526</v>
+        <v>0.9262014200000001</v>
       </c>
       <c r="H19">
-        <v>1.00954496</v>
+        <v>0.83937091</v>
       </c>
       <c r="I19">
-        <v>1.141524285263158</v>
+        <v>0.9180136600000001</v>
       </c>
       <c r="J19">
-        <v>0.9133194321052631</v>
+        <v>1.152547</v>
       </c>
       <c r="K19">
-        <v>1.00954496</v>
+        <v>0.83937091</v>
       </c>
       <c r="L19">
-        <v>1.048866542105263</v>
+        <v>0.96193414</v>
       </c>
       <c r="M19">
-        <v>0.9552766310526315</v>
+        <v>1.14476407</v>
       </c>
       <c r="N19">
-        <v>0.9552766310526315</v>
+        <v>1.14476407</v>
       </c>
       <c r="O19">
-        <v>0.9412908980701754</v>
+        <v>1.14735838</v>
       </c>
       <c r="P19">
-        <v>0.9733660740350877</v>
+        <v>1.04296635</v>
       </c>
       <c r="Q19">
-        <v>0.9733660740350875</v>
+        <v>1.04296635</v>
       </c>
       <c r="R19">
-        <v>0.9824107955263156</v>
+        <v>0.9920674899999999</v>
       </c>
       <c r="S19">
-        <v>0.9824107955263156</v>
+        <v>0.9920674899999999</v>
       </c>
       <c r="T19">
-        <v>1.002057410614035</v>
+        <v>1.020943521666666</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.009542374736842</v>
+        <v>1.179875123287671</v>
       </c>
       <c r="D20">
-        <v>0.8616927552631577</v>
+        <v>0.5981552753424659</v>
       </c>
       <c r="E20">
-        <v>1.048865569473684</v>
+        <v>1.058554261643835</v>
       </c>
       <c r="F20">
-        <v>0.8616927552631577</v>
+        <v>0.5981552753424659</v>
       </c>
       <c r="G20">
-        <v>1.037401081052632</v>
+        <v>1.093924756164383</v>
       </c>
       <c r="H20">
-        <v>1.009542374736842</v>
+        <v>1.179875123287671</v>
       </c>
       <c r="I20">
-        <v>1.141521697368421</v>
+        <v>1.13878534520548</v>
       </c>
       <c r="J20">
-        <v>0.9133225657894736</v>
+        <v>0.8020069293150682</v>
       </c>
       <c r="K20">
-        <v>1.009542374736842</v>
+        <v>1.179875123287671</v>
       </c>
       <c r="L20">
-        <v>1.048865569473684</v>
+        <v>1.058554261643835</v>
       </c>
       <c r="M20">
-        <v>0.9552791623684209</v>
+        <v>0.8283547684931507</v>
       </c>
       <c r="N20">
-        <v>0.9552791623684209</v>
+        <v>0.8283547684931507</v>
       </c>
       <c r="O20">
-        <v>0.9412936301754384</v>
+        <v>0.8195721554337899</v>
       </c>
       <c r="P20">
-        <v>0.9733668998245614</v>
+        <v>0.9455282200913239</v>
       </c>
       <c r="Q20">
-        <v>0.9733668998245614</v>
+        <v>0.9455282200913239</v>
       </c>
       <c r="R20">
-        <v>0.9824107685526315</v>
+        <v>1.004114945890411</v>
       </c>
       <c r="S20">
-        <v>0.9824107685526315</v>
+        <v>1.004114945890411</v>
       </c>
       <c r="T20">
-        <v>1.002057673947368</v>
+        <v>0.9785502818264838</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.03430275305951</v>
+        <v>1.00954496</v>
       </c>
       <c r="D21">
-        <v>1.082237970709322</v>
+        <v>0.8616867199999999</v>
       </c>
       <c r="E21">
-        <v>0.9486896285328137</v>
+        <v>1.048866542105263</v>
       </c>
       <c r="F21">
-        <v>1.082237970709322</v>
+        <v>0.8616867199999999</v>
       </c>
       <c r="G21">
-        <v>0.9736497251270588</v>
+        <v>1.037402524210526</v>
       </c>
       <c r="H21">
-        <v>1.03430275305951</v>
+        <v>1.00954496</v>
       </c>
       <c r="I21">
-        <v>0.8459635142590431</v>
+        <v>1.141524285263158</v>
       </c>
       <c r="J21">
-        <v>1.065711042282012</v>
+        <v>0.9133194321052631</v>
       </c>
       <c r="K21">
-        <v>1.03430275305951</v>
+        <v>1.00954496</v>
       </c>
       <c r="L21">
-        <v>0.9486896285328137</v>
+        <v>1.048866542105263</v>
       </c>
       <c r="M21">
-        <v>1.015463799621068</v>
+        <v>0.9552766310526315</v>
       </c>
       <c r="N21">
-        <v>1.015463799621068</v>
+        <v>0.9552766310526315</v>
       </c>
       <c r="O21">
-        <v>1.032212880508049</v>
+        <v>0.9412908980701754</v>
       </c>
       <c r="P21">
-        <v>1.021743450767215</v>
+        <v>0.9733660740350877</v>
       </c>
       <c r="Q21">
-        <v>1.021743450767216</v>
+        <v>0.9733660740350875</v>
       </c>
       <c r="R21">
-        <v>1.024883276340289</v>
+        <v>0.9824107955263156</v>
       </c>
       <c r="S21">
-        <v>1.024883276340289</v>
+        <v>0.9824107955263156</v>
       </c>
       <c r="T21">
-        <v>0.9917591056616267</v>
+        <v>1.002057410614035</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9645572990960503</v>
+        <v>1.009542374736842</v>
       </c>
       <c r="D22">
-        <v>1.050094095817835</v>
+        <v>0.8616927552631577</v>
       </c>
       <c r="E22">
-        <v>1.000643624370919</v>
+        <v>1.048865569473684</v>
       </c>
       <c r="F22">
-        <v>1.050094095817835</v>
+        <v>0.8616927552631577</v>
       </c>
       <c r="G22">
-        <v>0.9901228246439837</v>
+        <v>1.037401081052632</v>
       </c>
       <c r="H22">
-        <v>0.9645572990960503</v>
+        <v>1.009542374736842</v>
       </c>
       <c r="I22">
-        <v>1.009429866402673</v>
+        <v>1.141521697368421</v>
       </c>
       <c r="J22">
-        <v>1.018275162555036</v>
+        <v>0.9133225657894736</v>
       </c>
       <c r="K22">
-        <v>0.9645572990960503</v>
+        <v>1.009542374736842</v>
       </c>
       <c r="L22">
-        <v>1.000643624370919</v>
+        <v>1.048865569473684</v>
       </c>
       <c r="M22">
-        <v>1.025368860094377</v>
+        <v>0.9552791623684209</v>
       </c>
       <c r="N22">
-        <v>1.025368860094377</v>
+        <v>0.9552791623684209</v>
       </c>
       <c r="O22">
-        <v>1.02300429424793</v>
+        <v>0.9412936301754384</v>
       </c>
       <c r="P22">
-        <v>1.005098339761602</v>
+        <v>0.9733668998245614</v>
       </c>
       <c r="Q22">
-        <v>1.005098339761602</v>
+        <v>0.9733668998245614</v>
       </c>
       <c r="R22">
-        <v>0.9949630795952138</v>
+        <v>0.9824107685526315</v>
       </c>
       <c r="S22">
-        <v>0.9949630795952138</v>
+        <v>0.9824107685526315</v>
       </c>
       <c r="T22">
-        <v>1.005520478814416</v>
+        <v>1.002057673947368</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>1.034300192776148</v>
+        <v>1.03430275305951</v>
       </c>
       <c r="D23">
-        <v>1.082246127759765</v>
+        <v>1.082237970709322</v>
       </c>
       <c r="E23">
-        <v>0.9486879189360159</v>
+        <v>0.9486896285328137</v>
       </c>
       <c r="F23">
-        <v>1.082246127759765</v>
+        <v>1.082237970709322</v>
       </c>
       <c r="G23">
-        <v>0.973647767142882</v>
+        <v>0.9736497251270588</v>
       </c>
       <c r="H23">
-        <v>1.034300192776148</v>
+        <v>1.03430275305951</v>
       </c>
       <c r="I23">
-        <v>0.8459593346529771</v>
+        <v>0.8459635142590431</v>
       </c>
       <c r="J23">
-        <v>1.065715200201808</v>
+        <v>1.065711042282012</v>
       </c>
       <c r="K23">
-        <v>1.034300192776148</v>
+        <v>1.03430275305951</v>
       </c>
       <c r="L23">
-        <v>0.9486879189360159</v>
+        <v>0.9486896285328137</v>
       </c>
       <c r="M23">
-        <v>1.015467023347891</v>
+        <v>1.015463799621068</v>
       </c>
       <c r="N23">
-        <v>1.015467023347891</v>
+        <v>1.015463799621068</v>
       </c>
       <c r="O23">
-        <v>1.03221641563253</v>
+        <v>1.032212880508049</v>
       </c>
       <c r="P23">
-        <v>1.021744746490643</v>
+        <v>1.021743450767215</v>
       </c>
       <c r="Q23">
-        <v>1.021744746490643</v>
+        <v>1.021743450767216</v>
       </c>
       <c r="R23">
-        <v>1.024883608062019</v>
+        <v>1.024883276340289</v>
       </c>
       <c r="S23">
-        <v>1.024883608062019</v>
+        <v>1.024883276340289</v>
       </c>
       <c r="T23">
-        <v>0.9917594235782662</v>
+        <v>0.9917591056616267</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9645569955738693</v>
+        <v>0.9645572990960503</v>
       </c>
       <c r="D24">
-        <v>1.050095771542162</v>
+        <v>1.050094095817835</v>
       </c>
       <c r="E24">
-        <v>1.000643091019575</v>
+        <v>1.000643624370919</v>
       </c>
       <c r="F24">
-        <v>1.050095771542162</v>
+        <v>1.050094095817835</v>
       </c>
       <c r="G24">
-        <v>0.9901223627025181</v>
+        <v>0.9901228246439837</v>
       </c>
       <c r="H24">
-        <v>0.9645569955738693</v>
+        <v>0.9645572990960503</v>
       </c>
       <c r="I24">
-        <v>1.009428130733858</v>
+        <v>1.009429866402673</v>
       </c>
       <c r="J24">
-        <v>1.01827627897359</v>
+        <v>1.018275162555036</v>
       </c>
       <c r="K24">
-        <v>0.9645569955738693</v>
+        <v>0.9645572990960503</v>
       </c>
       <c r="L24">
-        <v>1.000643091019575</v>
+        <v>1.000643624370919</v>
       </c>
       <c r="M24">
-        <v>1.025369431280869</v>
+        <v>1.025368860094377</v>
       </c>
       <c r="N24">
-        <v>1.025369431280869</v>
+        <v>1.025368860094377</v>
       </c>
       <c r="O24">
-        <v>1.023005047178442</v>
+        <v>1.02300429424793</v>
       </c>
       <c r="P24">
-        <v>1.005098619378535</v>
+        <v>1.005098339761602</v>
       </c>
       <c r="Q24">
-        <v>1.005098619378536</v>
+        <v>1.005098339761602</v>
       </c>
       <c r="R24">
-        <v>0.9949632134273689</v>
+        <v>0.9949630795952138</v>
       </c>
       <c r="S24">
-        <v>0.9949632134273689</v>
+        <v>0.9949630795952138</v>
       </c>
       <c r="T24">
-        <v>1.005520438424262</v>
+        <v>1.005520478814416</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.034296363628243</v>
+        <v>1.034300192776148</v>
       </c>
       <c r="D25">
-        <v>1.082255510637703</v>
+        <v>1.082246127759765</v>
       </c>
       <c r="E25">
-        <v>0.9486863582500897</v>
+        <v>0.9486879189360159</v>
       </c>
       <c r="F25">
-        <v>1.082255510637703</v>
+        <v>1.082246127759765</v>
       </c>
       <c r="G25">
-        <v>0.97364555173597</v>
+        <v>0.973647767142882</v>
       </c>
       <c r="H25">
-        <v>1.034296363628243</v>
+        <v>1.034300192776148</v>
       </c>
       <c r="I25">
-        <v>0.8459553945559271</v>
+        <v>0.8459593346529771</v>
       </c>
       <c r="J25">
-        <v>1.065719953248985</v>
+        <v>1.065715200201808</v>
       </c>
       <c r="K25">
-        <v>1.034296363628243</v>
+        <v>1.034300192776148</v>
       </c>
       <c r="L25">
-        <v>0.9486863582500897</v>
+        <v>0.9486879189360159</v>
       </c>
       <c r="M25">
-        <v>1.015470934443896</v>
+        <v>1.015467023347891</v>
       </c>
       <c r="N25">
-        <v>1.015470934443896</v>
+        <v>1.015467023347891</v>
       </c>
       <c r="O25">
-        <v>1.032220607378926</v>
+        <v>1.03221641563253</v>
       </c>
       <c r="P25">
-        <v>1.021746077505345</v>
+        <v>1.021744746490643</v>
       </c>
       <c r="Q25">
-        <v>1.021746077505345</v>
+        <v>1.021744746490643</v>
       </c>
       <c r="R25">
-        <v>1.02488364903607</v>
+        <v>1.024883608062019</v>
       </c>
       <c r="S25">
-        <v>1.02488364903607</v>
+        <v>1.024883608062019</v>
       </c>
       <c r="T25">
-        <v>0.9917598553428197</v>
+        <v>0.9917594235782662</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9645571982617638</v>
+        <v>0.9645569955738693</v>
       </c>
       <c r="D26">
-        <v>1.050097797515326</v>
+        <v>1.050095771542162</v>
       </c>
       <c r="E26">
-        <v>1.000642246595599</v>
+        <v>1.000643091019575</v>
       </c>
       <c r="F26">
-        <v>1.050097797515326</v>
+        <v>1.050095771542162</v>
       </c>
       <c r="G26">
-        <v>0.9901218207406068</v>
+        <v>0.9901223627025181</v>
       </c>
       <c r="H26">
-        <v>0.9645571982617638</v>
+        <v>0.9645569955738693</v>
       </c>
       <c r="I26">
-        <v>1.009425922269827</v>
+        <v>1.009428130733858</v>
       </c>
       <c r="J26">
-        <v>1.018277486304808</v>
+        <v>1.01827627897359</v>
       </c>
       <c r="K26">
-        <v>0.9645571982617638</v>
+        <v>0.9645569955738693</v>
       </c>
       <c r="L26">
-        <v>1.000642246595599</v>
+        <v>1.000643091019575</v>
       </c>
       <c r="M26">
-        <v>1.025370022055463</v>
+        <v>1.025369431280869</v>
       </c>
       <c r="N26">
-        <v>1.025370022055463</v>
+        <v>1.025369431280869</v>
       </c>
       <c r="O26">
-        <v>1.023005843471911</v>
+        <v>1.023005047178442</v>
       </c>
       <c r="P26">
-        <v>1.005099080790896</v>
+        <v>1.005098619378535</v>
       </c>
       <c r="Q26">
-        <v>1.005099080790896</v>
+        <v>1.005098619378536</v>
       </c>
       <c r="R26">
-        <v>0.9949636101586132</v>
+        <v>0.9949632134273689</v>
       </c>
       <c r="S26">
-        <v>0.9949636101586132</v>
+        <v>0.9949632134273689</v>
       </c>
       <c r="T26">
-        <v>1.005520411947989</v>
+        <v>1.005520438424262</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.018200340446461</v>
+        <v>1.034296363628243</v>
       </c>
       <c r="D27">
-        <v>0.9354260507490897</v>
+        <v>1.082255510637703</v>
       </c>
       <c r="E27">
-        <v>1.013298672775842</v>
+        <v>0.9486863582500897</v>
       </c>
       <c r="F27">
-        <v>0.9354260507490897</v>
+        <v>1.082255510637703</v>
       </c>
       <c r="G27">
-        <v>1.014727732074468</v>
+        <v>0.97364555173597</v>
       </c>
       <c r="H27">
-        <v>1.018200340446461</v>
+        <v>1.034296363628243</v>
       </c>
       <c r="I27">
-        <v>1.029719640670445</v>
+        <v>0.8459553945559271</v>
       </c>
       <c r="J27">
-        <v>0.9695990282603252</v>
+        <v>1.065719953248985</v>
       </c>
       <c r="K27">
-        <v>1.018200340446461</v>
+        <v>1.034296363628243</v>
       </c>
       <c r="L27">
-        <v>1.013298672775842</v>
+        <v>0.9486863582500897</v>
       </c>
       <c r="M27">
-        <v>0.9743623617624657</v>
+        <v>1.015470934443896</v>
       </c>
       <c r="N27">
-        <v>0.9743623617624657</v>
+        <v>1.015470934443896</v>
       </c>
       <c r="O27">
-        <v>0.9727745839284189</v>
+        <v>1.032220607378926</v>
       </c>
       <c r="P27">
-        <v>0.9889750213237977</v>
+        <v>1.021746077505345</v>
       </c>
       <c r="Q27">
-        <v>0.9889750213237977</v>
+        <v>1.021746077505345</v>
       </c>
       <c r="R27">
-        <v>0.9962813511044636</v>
+        <v>1.02488364903607</v>
       </c>
       <c r="S27">
-        <v>0.9962813511044636</v>
+        <v>1.02488364903607</v>
       </c>
       <c r="T27">
-        <v>0.996828577496105</v>
+        <v>0.9917598553428197</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.016673656663996</v>
+        <v>0.9645571982617638</v>
       </c>
       <c r="D28">
-        <v>0.9984480808041502</v>
+        <v>1.050097797515326</v>
       </c>
       <c r="E28">
-        <v>0.9917315740989019</v>
+        <v>1.000642246595599</v>
       </c>
       <c r="F28">
-        <v>0.9984480808041502</v>
+        <v>1.050097797515326</v>
       </c>
       <c r="G28">
-        <v>0.9990033134580446</v>
+        <v>0.9901218207406068</v>
       </c>
       <c r="H28">
-        <v>1.016673656663996</v>
+        <v>0.9645571982617638</v>
       </c>
       <c r="I28">
-        <v>0.9722584397291056</v>
+        <v>1.009425922269827</v>
       </c>
       <c r="J28">
-        <v>1.004481490387057</v>
+        <v>1.018277486304808</v>
       </c>
       <c r="K28">
-        <v>1.016673656663996</v>
+        <v>0.9645571982617638</v>
       </c>
       <c r="L28">
-        <v>0.9917315740989019</v>
+        <v>1.000642246595599</v>
       </c>
       <c r="M28">
-        <v>0.9950898274515261</v>
+        <v>1.025370022055463</v>
       </c>
       <c r="N28">
-        <v>0.9950898274515261</v>
+        <v>1.025370022055463</v>
       </c>
       <c r="O28">
-        <v>0.9982203817633698</v>
+        <v>1.023005843471911</v>
       </c>
       <c r="P28">
-        <v>1.002284437189016</v>
+        <v>1.005099080790896</v>
       </c>
       <c r="Q28">
-        <v>1.002284437189016</v>
+        <v>1.005099080790896</v>
       </c>
       <c r="R28">
-        <v>1.005881742057761</v>
+        <v>0.9949636101586132</v>
       </c>
       <c r="S28">
-        <v>1.005881742057761</v>
+        <v>0.9949636101586132</v>
       </c>
       <c r="T28">
-        <v>0.9970994258568759</v>
+        <v>1.005520411947989</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.018200340446461</v>
+      </c>
+      <c r="D29">
+        <v>0.9354260507490897</v>
+      </c>
+      <c r="E29">
+        <v>1.013298672775842</v>
+      </c>
+      <c r="F29">
+        <v>0.9354260507490897</v>
+      </c>
+      <c r="G29">
+        <v>1.014727732074468</v>
+      </c>
+      <c r="H29">
+        <v>1.018200340446461</v>
+      </c>
+      <c r="I29">
+        <v>1.029719640670445</v>
+      </c>
+      <c r="J29">
+        <v>0.9695990282603252</v>
+      </c>
+      <c r="K29">
+        <v>1.018200340446461</v>
+      </c>
+      <c r="L29">
+        <v>1.013298672775842</v>
+      </c>
+      <c r="M29">
+        <v>0.9743623617624657</v>
+      </c>
+      <c r="N29">
+        <v>0.9743623617624657</v>
+      </c>
+      <c r="O29">
+        <v>0.9727745839284189</v>
+      </c>
+      <c r="P29">
+        <v>0.9889750213237977</v>
+      </c>
+      <c r="Q29">
+        <v>0.9889750213237977</v>
+      </c>
+      <c r="R29">
+        <v>0.9962813511044636</v>
+      </c>
+      <c r="S29">
+        <v>0.9962813511044636</v>
+      </c>
+      <c r="T29">
+        <v>0.996828577496105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.016673656663996</v>
+      </c>
+      <c r="D30">
+        <v>0.9984480808041502</v>
+      </c>
+      <c r="E30">
+        <v>0.9917315740989019</v>
+      </c>
+      <c r="F30">
+        <v>0.9984480808041502</v>
+      </c>
+      <c r="G30">
+        <v>0.9990033134580446</v>
+      </c>
+      <c r="H30">
+        <v>1.016673656663996</v>
+      </c>
+      <c r="I30">
+        <v>0.9722584397291056</v>
+      </c>
+      <c r="J30">
+        <v>1.004481490387057</v>
+      </c>
+      <c r="K30">
+        <v>1.016673656663996</v>
+      </c>
+      <c r="L30">
+        <v>0.9917315740989019</v>
+      </c>
+      <c r="M30">
+        <v>0.9950898274515261</v>
+      </c>
+      <c r="N30">
+        <v>0.9950898274515261</v>
+      </c>
+      <c r="O30">
+        <v>0.9982203817633698</v>
+      </c>
+      <c r="P30">
+        <v>1.002284437189016</v>
+      </c>
+      <c r="Q30">
+        <v>1.002284437189016</v>
+      </c>
+      <c r="R30">
+        <v>1.005881742057761</v>
+      </c>
+      <c r="S30">
+        <v>1.005881742057761</v>
+      </c>
+      <c r="T30">
+        <v>0.9970994258568759</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9801045263701426</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.16375786566891</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9472615457212029</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.16375786566891</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.95683676519313</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.9801045263701426</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.8499275248587839</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>1.098590807217652</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9801045263701426</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9472615457212029</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.055509705695057</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.055509705695057</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.069870072869255</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.030374645920085</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.030374645920085</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.0178071160326</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.0178071160326</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>0.9994131725049703</v>
       </c>
     </row>
